--- a/Tapestri_batch2_samples_MASTER.xlsx
+++ b/Tapestri_batch2_samples_MASTER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_E6281A34BD5AD42E4670B622DA8C4B50FED4EB07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19D5EF3F-BBD9-436F-9A33-7B8BD9BC4D9D}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_E6281A34BD5AD42E4670B622DA8C4B50FED4EB07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B09CF0E-1E2C-46B6-A019-60360CBD611D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_case_genetics" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="539">
   <si>
     <t>general_info</t>
   </si>
@@ -483,9 +483,6 @@
     <t>gain/amp</t>
   </si>
   <si>
-    <t>homdel(subgene)</t>
-  </si>
-  <si>
     <t>yes?</t>
   </si>
   <si>
@@ -533,7 +530,7 @@
     <t>gain</t>
   </si>
   <si>
-    <t>homdel(subclonal,subgene)</t>
+    <t>homdel(subgene)</t>
   </si>
   <si>
     <t xml:space="preserve">homdel </t>
@@ -555,9 +552,6 @@
   </si>
   <si>
     <t>NCOA3 inf_del; DNMT3B missense(uncertain significance)</t>
-  </si>
-  <si>
-    <t>fs_del</t>
   </si>
   <si>
     <r>
@@ -612,7 +606,7 @@
     <t>gain+LOH</t>
   </si>
   <si>
-    <t>WT</t>
+    <t>fs_del</t>
   </si>
   <si>
     <t>SNV+homdel(subgene,subclonal)</t>
@@ -644,9 +638,6 @@
     <t>PA-12</t>
   </si>
   <si>
-    <t>homdel</t>
-  </si>
-  <si>
     <r>
       <t>SMAD4</t>
     </r>
@@ -714,6 +705,9 @@
     <t>PA-15</t>
   </si>
   <si>
+    <t>homdel(subclonal,subgene)</t>
+  </si>
+  <si>
     <t>SNV</t>
   </si>
   <si>
@@ -787,13 +781,13 @@
     <t xml:space="preserve">biopsy </t>
   </si>
   <si>
-    <t>splice</t>
-  </si>
-  <si>
     <t>TP12</t>
   </si>
   <si>
     <t>PA-18</t>
+  </si>
+  <si>
+    <t>homdel</t>
   </si>
   <si>
     <r>
@@ -894,6 +888,9 @@
     <t>PA-23</t>
   </si>
   <si>
+    <t>splice</t>
+  </si>
+  <si>
     <t>BPA-5</t>
   </si>
   <si>
@@ -1984,7 +1981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2082,8 +2079,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2216,8 +2219,32 @@
         <bgColor rgb="FFF6B3AE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEE1CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2260,11 +2287,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2349,6 +2466,42 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2618,9 +2771,9 @@
   </sheetPr>
   <dimension ref="A1:AY993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -2632,7 +2785,8 @@
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="58.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="14" max="15" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" customWidth="1"/>
+    <col min="15" max="15" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.28515625" customWidth="1"/>
     <col min="21" max="21" width="30.28515625" customWidth="1"/>
     <col min="23" max="23" width="19" customWidth="1"/>
@@ -3288,7 +3442,7 @@
       </c>
       <c r="AF8" s="37"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" ht="16.5">
       <c r="A9" s="63" t="s">
         <v>87</v>
       </c>
@@ -3325,38 +3479,38 @@
       <c r="N9" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="P9" s="37" t="s">
+      <c r="O9" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="64" t="s">
-        <v>46</v>
+      <c r="R9" s="64">
+        <v>11</v>
       </c>
       <c r="S9" s="64" t="s">
         <v>46</v>
       </c>
       <c r="T9" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="37" t="s">
         <v>92</v>
-      </c>
-      <c r="U9" s="37" t="s">
-        <v>93</v>
       </c>
       <c r="V9" s="37"/>
       <c r="W9" s="37"/>
       <c r="X9" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z9" s="37"/>
       <c r="AA9" s="66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="37"/>
       <c r="AC9" s="37"/>
@@ -3364,16 +3518,16 @@
         <v>48</v>
       </c>
       <c r="AE9" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF9" s="37"/>
+    </row>
+    <row r="10" spans="1:32" ht="16.5">
+      <c r="A10" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="AF9" s="37"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="63" t="s">
+      <c r="B10" s="63" t="s">
         <v>97</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>98</v>
       </c>
       <c r="C10" s="37">
         <v>0</v>
@@ -3405,13 +3559,13 @@
       <c r="N10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="37" t="s">
+      <c r="O10" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="58" t="s">
+      <c r="P10" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R10" s="64" t="s">
@@ -3424,7 +3578,7 @@
         <v>48</v>
       </c>
       <c r="U10" s="67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
@@ -3438,16 +3592,16 @@
         <v>48</v>
       </c>
       <c r="AE10" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF10" s="37"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" ht="16.5">
       <c r="A11" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>100</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>101</v>
       </c>
       <c r="C11" s="37">
         <v>0</v>
@@ -3472,41 +3626,41 @@
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="37"/>
       <c r="M11" s="37" t="s">
         <v>58</v>
       </c>
       <c r="N11" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="69" t="s">
+      <c r="S11" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="P11" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="R11" s="66" t="s">
+      <c r="T11" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="S11" s="66" t="s">
+      <c r="U11" s="63" t="s">
         <v>105</v>
-      </c>
-      <c r="T11" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="U11" s="63" t="s">
-        <v>106</v>
       </c>
       <c r="V11" s="63"/>
       <c r="W11" s="63"/>
       <c r="X11" s="63"/>
       <c r="Y11" s="63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z11" s="63"/>
       <c r="AA11" s="63"/>
@@ -3516,12 +3670,12 @@
       <c r="AE11" s="37"/>
       <c r="AF11" s="37"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" ht="16.5">
       <c r="A12" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="63" t="s">
         <v>108</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>109</v>
       </c>
       <c r="C12" s="37">
         <v>0</v>
@@ -3542,26 +3696,26 @@
         <v>81</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37" t="s">
         <v>58</v>
       </c>
       <c r="N12" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q12" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R12" s="37" t="s">
@@ -3572,7 +3726,7 @@
         <v>48</v>
       </c>
       <c r="U12" s="63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V12" s="63"/>
       <c r="W12" s="63"/>
@@ -3586,16 +3740,16 @@
         <v>48</v>
       </c>
       <c r="AE12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF12" s="37"/>
+    </row>
+    <row r="13" spans="1:32" ht="16.5">
+      <c r="A13" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>114</v>
-      </c>
-      <c r="AF12" s="37"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>116</v>
       </c>
       <c r="C13" s="37">
         <v>0</v>
@@ -3625,26 +3779,26 @@
         <v>58</v>
       </c>
       <c r="N13" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" s="37" t="s">
         <v>117</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" s="37" t="s">
-        <v>119</v>
       </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37" t="s">
         <v>48</v>
       </c>
       <c r="U13" s="67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V13" s="63"/>
       <c r="W13" s="63"/>
@@ -3653,23 +3807,23 @@
       <c r="Z13" s="63"/>
       <c r="AA13" s="63"/>
       <c r="AB13" s="63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC13" s="63"/>
       <c r="AD13" s="68" t="s">
         <v>48</v>
       </c>
       <c r="AE13" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF13" s="37"/>
+    </row>
+    <row r="14" spans="1:32" ht="16.5">
+      <c r="A14" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="63" t="s">
         <v>122</v>
-      </c>
-      <c r="AF13" s="37"/>
-    </row>
-    <row r="14" spans="1:32">
-      <c r="A14" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>124</v>
       </c>
       <c r="C14" s="37">
         <v>0</v>
@@ -3690,7 +3844,7 @@
         <v>43</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
@@ -3701,13 +3855,13 @@
       <c r="N14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O14" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="37" t="s">
+      <c r="O14" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" s="58" t="s">
+      <c r="Q14" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R14" s="37" t="s">
@@ -3718,7 +3872,7 @@
         <v>48</v>
       </c>
       <c r="U14" s="67" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V14" s="63"/>
       <c r="W14" s="63"/>
@@ -3734,12 +3888,12 @@
       <c r="AE14" s="37"/>
       <c r="AF14" s="37"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" ht="16.5">
       <c r="A15" s="63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="37">
         <v>0</v>
@@ -3769,14 +3923,14 @@
       <c r="N15" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="O15" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>60</v>
+      <c r="O15" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="81" t="s">
+        <v>46</v>
       </c>
       <c r="R15" s="64" t="s">
         <v>46</v>
@@ -3794,7 +3948,7 @@
       <c r="Y15" s="63"/>
       <c r="Z15" s="63"/>
       <c r="AA15" s="70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AB15" s="63"/>
       <c r="AC15" s="63"/>
@@ -3802,16 +3956,16 @@
         <v>48</v>
       </c>
       <c r="AE15" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF15" s="37"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" ht="16.5">
       <c r="A16" s="63" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C16" s="37">
         <v>0</v>
@@ -3835,7 +3989,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
       <c r="L16" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M16" s="37" t="s">
         <v>58</v>
@@ -3843,14 +3997,14 @@
       <c r="N16" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="37" t="s">
+      <c r="O16" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="Q16" s="64" t="s">
-        <v>46</v>
+      <c r="Q16" s="77" t="s">
+        <v>60</v>
       </c>
       <c r="R16" s="37" t="s">
         <v>59</v>
@@ -3860,7 +4014,7 @@
         <v>48</v>
       </c>
       <c r="U16" s="67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="V16" s="63"/>
       <c r="W16" s="63"/>
@@ -3868,13 +4022,13 @@
       <c r="Y16" s="63"/>
       <c r="Z16" s="63"/>
       <c r="AA16" s="70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AB16" s="63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AC16" s="63" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AD16" s="68" t="s">
         <v>48</v>
@@ -3883,15 +4037,15 @@
         <v>46</v>
       </c>
       <c r="AF16" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" ht="16.5">
       <c r="A17" s="63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17" s="37">
         <v>0</v>
@@ -3919,19 +4073,19 @@
         <v>58</v>
       </c>
       <c r="N17" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O17" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="58" t="s">
+      <c r="Q17" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R17" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="S17" s="37" t="s">
         <v>60</v>
@@ -3940,45 +4094,45 @@
         <v>48</v>
       </c>
       <c r="U17" s="67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V17" s="63"/>
       <c r="W17" s="63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X17" s="63"/>
       <c r="Y17" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z17" s="63"/>
       <c r="AA17" s="63"/>
       <c r="AB17" s="70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AC17" s="63"/>
       <c r="AD17" s="68" t="s">
         <v>48</v>
       </c>
       <c r="AE17" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF17" s="37"/>
+    </row>
+    <row r="18" spans="1:51" ht="16.5">
+      <c r="A18" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="63" t="s">
         <v>146</v>
-      </c>
-      <c r="AF17" s="37"/>
-    </row>
-    <row r="18" spans="1:51">
-      <c r="A18" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>148</v>
       </c>
       <c r="C18" s="37">
         <v>0</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F18" s="37" t="s">
         <v>41</v>
@@ -3992,22 +4146,22 @@
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37" t="s">
         <v>58</v>
       </c>
       <c r="N18" s="69" t="s">
-        <v>117</v>
-      </c>
-      <c r="O18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="Q18" s="58" t="s">
+      <c r="P18" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R18" s="37" t="s">
@@ -4018,7 +4172,7 @@
         <v>48</v>
       </c>
       <c r="U18" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V18" s="63"/>
       <c r="W18" s="63"/>
@@ -4027,32 +4181,32 @@
       <c r="Z18" s="63"/>
       <c r="AA18" s="63"/>
       <c r="AB18" s="63" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AC18" s="63"/>
       <c r="AD18" s="68" t="s">
         <v>48</v>
       </c>
       <c r="AE18" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF18" s="37"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" ht="16.5">
       <c r="A19" s="37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C19" s="37">
         <v>0</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F19" s="37" t="s">
         <v>41</v>
@@ -4071,13 +4225,13 @@
       <c r="N19" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="O19" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q19" s="58" t="s">
+      <c r="O19" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q19" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R19" s="37" t="s">
@@ -4100,21 +4254,21 @@
       <c r="AE19" s="37"/>
       <c r="AF19" s="37"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" ht="16.5">
       <c r="A20" s="37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="37">
         <v>0</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>41</v>
@@ -4133,13 +4287,13 @@
       <c r="N20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="37" t="s">
+      <c r="O20" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="58" t="s">
+      <c r="Q20" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R20" s="69" t="s">
@@ -4152,11 +4306,11 @@
         <v>48</v>
       </c>
       <c r="U20" s="65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V20" s="66"/>
       <c r="W20" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X20" s="37"/>
       <c r="Y20" s="37"/>
@@ -4164,29 +4318,29 @@
       <c r="AA20" s="37"/>
       <c r="AB20" s="37"/>
       <c r="AC20" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD20" s="60"/>
       <c r="AE20" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF20" s="37"/>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" ht="16.5">
       <c r="A21" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="37">
         <v>0</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F21" s="37" t="s">
         <v>41</v>
@@ -4205,17 +4359,17 @@
       <c r="N21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="37" t="s">
+      <c r="O21" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q21" s="58" t="s">
+      <c r="Q21" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R21" s="69" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="S21" s="37"/>
       <c r="T21" s="37"/>
@@ -4232,21 +4386,21 @@
       <c r="AE21" s="37"/>
       <c r="AF21" s="37"/>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" ht="16.5">
       <c r="A22" s="37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C22" s="37">
         <v>0</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F22" s="37" t="s">
         <v>41</v>
@@ -4265,14 +4419,14 @@
       <c r="N22" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="37" t="s">
+      <c r="O22" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" s="37" t="s">
-        <v>60</v>
+      <c r="Q22" s="81" t="s">
+        <v>46</v>
       </c>
       <c r="R22" s="37" t="s">
         <v>46</v>
@@ -4287,14 +4441,14 @@
         <v>46</v>
       </c>
       <c r="V22" s="37" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W22" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X22" s="37"/>
       <c r="Y22" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z22" s="37"/>
       <c r="AA22" s="37"/>
@@ -4304,21 +4458,21 @@
       <c r="AE22" s="37"/>
       <c r="AF22" s="37"/>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" ht="16.5">
       <c r="A23" s="37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F23" s="37" t="s">
         <v>41</v>
@@ -4337,13 +4491,13 @@
       <c r="N23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P23" s="37" t="s">
+      <c r="O23" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="Q23" s="58" t="s">
+      <c r="Q23" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R23" s="37" t="s">
@@ -4359,10 +4513,10 @@
         <v>46</v>
       </c>
       <c r="V23" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W23" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X23" s="37"/>
       <c r="Y23" s="37"/>
@@ -4374,12 +4528,12 @@
       <c r="AE23" s="37"/>
       <c r="AF23" s="37"/>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" ht="16.5">
       <c r="A24" s="63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="37">
         <v>0</v>
@@ -4388,10 +4542,10 @@
         <v>40</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37" t="s">
@@ -4400,7 +4554,7 @@
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37" t="s">
@@ -4409,32 +4563,32 @@
       <c r="N24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P24" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q24" s="64" t="s">
-        <v>46</v>
+      <c r="O24" s="83" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" s="77" t="s">
+        <v>60</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="S24" s="37" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="T24" s="37" t="s">
         <v>48</v>
       </c>
       <c r="U24" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="V24" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W24" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
@@ -4446,12 +4600,12 @@
       <c r="AE24" s="37"/>
       <c r="AF24" s="37"/>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" ht="16.5">
       <c r="A25" s="66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" s="66">
         <v>1</v>
@@ -4460,7 +4614,7 @@
         <v>40</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F25" s="66" t="s">
         <v>41</v>
@@ -4475,9 +4629,15 @@
       <c r="L25" s="66"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
+      <c r="O25" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q25" s="77" t="s">
+        <v>60</v>
+      </c>
       <c r="R25" s="66"/>
       <c r="S25" s="37"/>
       <c r="T25" s="37"/>
@@ -4513,12 +4673,12 @@
       <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" ht="16.5">
       <c r="A26" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="63" t="s">
         <v>184</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>185</v>
       </c>
       <c r="C26" s="37">
         <v>0</v>
@@ -4527,7 +4687,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>41</v>
@@ -4546,14 +4706,14 @@
       <c r="N26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P26" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="37" t="s">
-        <v>46</v>
+      <c r="O26" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="77" t="s">
+        <v>60</v>
       </c>
       <c r="R26" s="37" t="s">
         <v>58</v>
@@ -4575,21 +4735,21 @@
       <c r="AE26" s="37"/>
       <c r="AF26" s="37"/>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" ht="16.5">
       <c r="A27" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="37">
         <v>1</v>
       </c>
       <c r="D27" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="63" t="s">
         <v>187</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>188</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>41</v>
@@ -4608,14 +4768,14 @@
       <c r="N27" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="O27" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="P27" s="37" t="s">
+      <c r="O27" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="64" t="s">
-        <v>46</v>
+      <c r="P27" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" s="77" t="s">
+        <v>60</v>
       </c>
       <c r="R27" s="64" t="s">
         <v>46</v>
@@ -4635,27 +4795,27 @@
       <c r="AA27" s="37"/>
       <c r="AB27" s="37"/>
       <c r="AC27" s="66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD27" s="60"/>
       <c r="AE27" s="37"/>
       <c r="AF27" s="37"/>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" ht="16.5">
       <c r="A28" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" s="37">
         <v>1</v>
       </c>
       <c r="D28" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="63" t="s">
         <v>187</v>
-      </c>
-      <c r="E28" s="63" t="s">
-        <v>188</v>
       </c>
       <c r="F28" s="37" t="s">
         <v>41</v>
@@ -4674,13 +4834,13 @@
       <c r="N28" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q28" s="58" t="s">
+      <c r="O28" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="77" t="s">
         <v>60</v>
       </c>
       <c r="R28" s="69" t="s">
@@ -4691,11 +4851,11 @@
         <v>48</v>
       </c>
       <c r="U28" s="65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="V28" s="66"/>
       <c r="W28" s="66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="X28" s="37"/>
       <c r="Y28" s="37"/>
@@ -4703,11 +4863,11 @@
       <c r="AA28" s="37"/>
       <c r="AB28" s="37"/>
       <c r="AC28" s="37" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AD28" s="60"/>
       <c r="AE28" s="37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AF28" s="37"/>
     </row>
@@ -7612,17 +7772,17 @@
       <sortCondition ref="D2:D26"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:A24 B1:B28 I1:L24 M1:N25 O1:AF24 O26:O28 S26:S28 A27:A28 P27:R28 T27:AF28 C1:C24 D1:H2 C27:D28 F27:N28 D19:H26 D3:F18 H3:H18">
+  <conditionalFormatting sqref="A1:A24 B1:B28 I1:L24 M1:N25 O1:AF8 S26:S28 A27:A28 R27:R28 T27:AF28 C1:C24 D1:H2 C27:D28 F27:N28 D19:H26 D3:F18 H3:H18 R9:AF24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"LOH"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AF2 A27:D28 F27:AF28 A19:AF26 A3:F18 H3:AF18">
+  <conditionalFormatting sqref="A1:AF2 A27:D28 F27:N28 A19:N26 A3:F18 H3:AF8 H9:N18 R9:AF28">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="homdel">
       <formula>NOT(ISERROR(SEARCH(("homdel"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AF2 A27:D28 F27:AF28 A19:AF26 A3:F18 H3:AF18">
+  <conditionalFormatting sqref="A1:AF2 A27:D28 F27:N28 A19:N26 A3:F18 H3:AF8 H9:N18 R9:AF28">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"none"</formula>
     </cfRule>
@@ -7638,9 +7798,9 @@
   </sheetPr>
   <dimension ref="A1:AK1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A81" sqref="A81"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD25"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -7664,10 +7824,10 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>9</v>
@@ -7676,67 +7836,67 @@
         <v>8</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="Z1" s="11"/>
       <c r="AA1" s="12"/>
@@ -7753,36 +7913,36 @@
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C2" s="14">
         <v>1</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -7792,7 +7952,7 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
@@ -7816,56 +7976,56 @@
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N3" s="15"/>
       <c r="O3" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P3" s="16">
         <v>44826</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U3" s="15"/>
       <c r="V3" s="15"/>
@@ -7889,54 +8049,54 @@
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>231</v>
-      </c>
       <c r="H4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P4" s="16">
         <v>44757</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -7945,7 +8105,7 @@
       </c>
       <c r="X4" s="15"/>
       <c r="Y4" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
@@ -7962,54 +8122,54 @@
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="14">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>236</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N5" s="15"/>
       <c r="O5" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P5" s="16">
         <v>44796</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
@@ -8036,38 +8196,38 @@
         <v>38</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="14">
         <v>0</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>244</v>
       </c>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
@@ -8075,14 +8235,14 @@
         <v>44712</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
@@ -8109,7 +8269,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="14">
         <v>0</v>
@@ -8118,13 +8278,13 @@
       <c r="E7" s="14"/>
       <c r="F7" s="18"/>
       <c r="G7" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -8137,7 +8297,7 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
@@ -8164,38 +8324,38 @@
         <v>38</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="14">
         <v>0</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>251</v>
-      </c>
       <c r="J8" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
@@ -8203,14 +8363,14 @@
         <v>44697</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R8" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S8" s="15"/>
       <c r="T8" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
@@ -8237,7 +8397,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C9" s="14">
         <v>0</v>
@@ -8246,13 +8406,13 @@
       <c r="E9" s="14"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -8265,7 +8425,7 @@
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U9" s="22"/>
       <c r="V9" s="15"/>
@@ -8292,35 +8452,35 @@
         <v>55</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="14">
         <v>0</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="F10" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>258</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -8329,14 +8489,14 @@
         <v>44704</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S10" s="15"/>
       <c r="T10" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U10" s="22">
         <v>0.33889999999999998</v>
@@ -8367,38 +8527,38 @@
         <v>63</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="14">
         <v>0</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>264</v>
-      </c>
       <c r="H11" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I11" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -8409,7 +8569,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
@@ -8436,7 +8596,7 @@
         <v>63</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="14">
         <v>0</v>
@@ -8445,13 +8605,13 @@
       <c r="E12" s="14"/>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -8464,7 +8624,7 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -8491,7 +8651,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -8500,13 +8660,13 @@
       <c r="E13" s="14"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -8519,7 +8679,7 @@
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -8546,38 +8706,38 @@
         <v>67</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C14" s="14">
         <v>0</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>271</v>
-      </c>
       <c r="G14" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
@@ -8585,12 +8745,12 @@
         <v>45013</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
@@ -8599,7 +8759,7 @@
       </c>
       <c r="X14" s="15"/>
       <c r="Y14" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
@@ -8619,57 +8779,57 @@
         <v>72</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" s="14">
         <v>0</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>278</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M15" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="O15" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="P15" s="24">
         <v>44474</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S15" s="15"/>
       <c r="T15" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
@@ -8678,7 +8838,7 @@
       </c>
       <c r="X15" s="15"/>
       <c r="Y15" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
@@ -8698,35 +8858,35 @@
         <v>72</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="14">
         <v>0</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="J16" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
@@ -8736,7 +8896,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U16" s="22"/>
       <c r="V16" s="15"/>
@@ -8760,17 +8920,17 @@
     </row>
     <row r="17" spans="1:37" ht="15.75" hidden="1" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="14">
         <v>1</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>288</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>289</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>76</v>
@@ -8779,11 +8939,11 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
@@ -8793,7 +8953,7 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U17" s="22"/>
       <c r="V17" s="15"/>
@@ -8815,17 +8975,17 @@
     </row>
     <row r="18" spans="1:37" ht="15.75" hidden="1" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="14">
         <v>1</v>
       </c>
       <c r="D18" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>292</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>76</v>
@@ -8834,11 +8994,11 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
@@ -8848,7 +9008,7 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U18" s="22"/>
       <c r="V18" s="15"/>
@@ -8873,38 +9033,38 @@
         <v>78</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C19" s="14">
         <v>0</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="K19" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -8912,14 +9072,14 @@
         <v>44704</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S19" s="15"/>
       <c r="T19" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U19" s="22">
         <v>0.3049</v>
@@ -8950,38 +9110,38 @@
         <v>78</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
@@ -8989,14 +9149,14 @@
         <v>44697</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S20" s="15"/>
       <c r="T20" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
@@ -9023,38 +9183,38 @@
         <v>78</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C21" s="14">
         <v>0</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L21" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -9062,16 +9222,16 @@
         <v>44705</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
@@ -9080,7 +9240,7 @@
       </c>
       <c r="X21" s="15"/>
       <c r="Y21" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
@@ -9100,55 +9260,55 @@
         <v>78</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C22" s="14">
         <v>0</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L22" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M22" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="O22" s="15"/>
       <c r="P22" s="16">
         <v>44677</v>
       </c>
       <c r="Q22" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="R22" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="R22" s="15" t="s">
-        <v>314</v>
       </c>
       <c r="S22" s="15"/>
       <c r="T22" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
@@ -9175,38 +9335,38 @@
         <v>87</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C23" s="14">
         <v>0</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="14" t="s">
+      <c r="I23" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="J23" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="J23" s="14" t="s">
+      <c r="K23" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>320</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>321</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -9214,12 +9374,12 @@
         <v>44712</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
@@ -9246,38 +9406,38 @@
         <v>87</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" s="14">
         <v>0</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I24" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>324</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
@@ -9285,14 +9445,14 @@
         <v>44732</v>
       </c>
       <c r="Q24" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="R24" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="R24" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="S24" s="15"/>
       <c r="T24" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
@@ -9319,36 +9479,36 @@
         <v>87</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C25" s="14">
         <v>0</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G25" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I25" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
@@ -9356,16 +9516,16 @@
         <v>44705</v>
       </c>
       <c r="Q25" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="S25" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="R25" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="S25" s="15" t="s">
-        <v>330</v>
-      </c>
       <c r="T25" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
@@ -9374,7 +9534,7 @@
       </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
@@ -9391,58 +9551,58 @@
     </row>
     <row r="26" spans="1:37" ht="15.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C26" s="14">
         <v>0</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="G26" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="J26" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K26" s="15"/>
       <c r="L26" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M26" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="N26" s="15" t="s">
-        <v>336</v>
-      </c>
       <c r="O26" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P26" s="16">
         <v>44670</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S26" s="15"/>
       <c r="T26" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
@@ -9468,58 +9628,58 @@
     </row>
     <row r="27" spans="1:37" ht="15.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C27" s="14">
         <v>0</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G27" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I27" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K27" s="15"/>
       <c r="L27" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M27" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="N27" s="15" t="s">
-        <v>341</v>
-      </c>
       <c r="O27" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P27" s="16">
         <v>44670</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S27" s="15"/>
       <c r="T27" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
@@ -9545,10 +9705,10 @@
     </row>
     <row r="28" spans="1:37" ht="15.75" customHeight="1">
       <c r="A28" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>343</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>344</v>
       </c>
       <c r="C28" s="14">
         <v>1</v>
@@ -9557,16 +9717,16 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I28" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="14"/>
@@ -9578,7 +9738,7 @@
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
@@ -9602,56 +9762,56 @@
     </row>
     <row r="29" spans="1:37" ht="15.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C29" s="14">
         <v>0</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G29" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I29" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="O29" s="15"/>
       <c r="P29" s="16">
         <v>44669</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S29" s="15"/>
       <c r="T29" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
@@ -9677,56 +9837,56 @@
     </row>
     <row r="30" spans="1:37" ht="15.75" customHeight="1">
       <c r="A30" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C30" s="14">
         <v>0</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H30" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="J30" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="N30" s="15" t="s">
         <v>352</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>353</v>
       </c>
       <c r="O30" s="15"/>
       <c r="P30" s="16">
         <v>44669</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
@@ -9752,41 +9912,41 @@
     </row>
     <row r="31" spans="1:37" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C31" s="14">
         <v>0</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H31" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="J31" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="K31" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="L31" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" s="15" t="s">
         <v>358</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>359</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
@@ -9797,7 +9957,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
       <c r="T31" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U31" s="15"/>
       <c r="V31" s="15"/>
@@ -9821,58 +9981,58 @@
     </row>
     <row r="32" spans="1:37" ht="15.75" customHeight="1">
       <c r="A32" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C32" s="14">
         <v>0</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="J32" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="K32" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" s="15" t="s">
         <v>364</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>365</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P32" s="16">
         <v>44655</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="S32" s="15"/>
       <c r="T32" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
@@ -9898,58 +10058,58 @@
     </row>
     <row r="33" spans="1:37" ht="15.75" customHeight="1">
       <c r="A33" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C33" s="14">
         <v>0</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P33" s="16">
         <v>44655</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R33" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S33" s="15"/>
       <c r="T33" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
@@ -9975,58 +10135,58 @@
     </row>
     <row r="34" spans="1:37" ht="15.75" customHeight="1">
       <c r="A34" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C34" s="14">
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H34" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="J34" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="K34" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="L34" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P34" s="16">
         <v>44656</v>
       </c>
       <c r="Q34" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="R34" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>378</v>
       </c>
       <c r="S34" s="15"/>
       <c r="T34" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U34" s="15"/>
       <c r="V34" s="15"/>
@@ -10052,58 +10212,58 @@
     </row>
     <row r="35" spans="1:37" ht="15.75" customHeight="1">
       <c r="A35" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C35" s="14">
         <v>0</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P35" s="16">
         <v>44656</v>
       </c>
       <c r="Q35" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R35" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S35" s="15"/>
       <c r="T35" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U35" s="15"/>
       <c r="V35" s="15"/>
@@ -10129,54 +10289,54 @@
     </row>
     <row r="36" spans="1:37" ht="15.75" customHeight="1">
       <c r="A36" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C36" s="14">
         <v>0</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H36" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="I36" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>385</v>
-      </c>
       <c r="J36" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K36" s="15"/>
       <c r="L36" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P36" s="16">
         <v>44662</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
       <c r="T36" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U36" s="15"/>
       <c r="V36" s="15"/>
@@ -10187,7 +10347,7 @@
         <v>2508</v>
       </c>
       <c r="Y36" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
@@ -10204,58 +10364,58 @@
     </row>
     <row r="37" spans="1:37" ht="15.75" customHeight="1">
       <c r="A37" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" s="14">
         <v>0</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H37" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="I37" s="15" t="s">
-        <v>388</v>
-      </c>
       <c r="J37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="L37" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N37" s="15"/>
       <c r="O37" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P37" s="16">
         <v>44663</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R37" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S37" s="15"/>
       <c r="T37" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
@@ -10279,56 +10439,56 @@
     </row>
     <row r="38" spans="1:37" ht="15.75" customHeight="1">
       <c r="A38" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" s="14">
         <v>0</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="s">
         <v>76</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I38" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="J38" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="K38" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="M38" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P38" s="16">
         <v>44662</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
       <c r="T38" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U38" s="15"/>
       <c r="V38" s="15"/>
@@ -10339,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
@@ -10356,56 +10516,56 @@
     </row>
     <row r="39" spans="1:37" ht="15.75" customHeight="1">
       <c r="A39" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" s="14">
         <v>0</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="15" t="s">
+      <c r="I39" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="J39" s="15" t="s">
         <v>398</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>399</v>
-      </c>
       <c r="K39" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="P39" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="P39" s="15" t="s">
-        <v>401</v>
-      </c>
       <c r="Q39" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
       <c r="T39" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U39" s="15"/>
       <c r="V39" s="15"/>
@@ -10429,10 +10589,10 @@
     </row>
     <row r="40" spans="1:37" ht="15.75" customHeight="1">
       <c r="A40" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C40" s="14">
         <v>0</v>
@@ -10440,45 +10600,45 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H40" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="J40" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>320</v>
-      </c>
       <c r="K40" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M40" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="P40" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="P40" s="15" t="s">
-        <v>404</v>
-      </c>
       <c r="Q40" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S40" s="15"/>
       <c r="T40" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
@@ -10502,10 +10662,10 @@
     </row>
     <row r="41" spans="1:37" ht="15.75" customHeight="1">
       <c r="A41" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C41" s="14">
         <v>0</v>
@@ -10513,49 +10673,49 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J41" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="K41" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="L41" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" s="33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P41" s="24">
         <v>44627</v>
       </c>
       <c r="Q41" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R41" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S41" s="15"/>
       <c r="T41" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U41" s="15"/>
       <c r="V41" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W41" s="15">
         <v>1094</v>
@@ -10579,10 +10739,10 @@
     </row>
     <row r="42" spans="1:37" ht="15.75" customHeight="1">
       <c r="A42" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C42" s="14">
         <v>0</v>
@@ -10590,45 +10750,45 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H42" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="J42" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>412</v>
-      </c>
       <c r="K42" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P42" s="24">
         <v>44607</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R42" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S42" s="15"/>
       <c r="T42" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U42" s="22">
         <v>0.29920000000000002</v>
@@ -10658,10 +10818,10 @@
     </row>
     <row r="43" spans="1:37" ht="15.75" customHeight="1">
       <c r="A43" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C43" s="14">
         <v>0</v>
@@ -10669,45 +10829,45 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H43" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="J43" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="K43" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="K43" s="15" t="s">
-        <v>358</v>
-      </c>
       <c r="L43" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" s="33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P43" s="24">
         <v>44607</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R43" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S43" s="15"/>
       <c r="T43" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U43" s="22">
         <v>0.3352</v>
@@ -10735,10 +10895,10 @@
     </row>
     <row r="44" spans="1:37" ht="15.75" customHeight="1">
       <c r="A44" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="14">
         <v>0</v>
@@ -10746,45 +10906,45 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I44" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M44" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P44" s="24">
         <v>44606</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R44" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S44" s="15"/>
       <c r="T44" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U44" s="22">
         <v>0.29149999999999998</v>
@@ -10814,10 +10974,10 @@
     </row>
     <row r="45" spans="1:37" ht="15.75" customHeight="1">
       <c r="A45" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C45" s="14">
         <v>0</v>
@@ -10825,19 +10985,19 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G45" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I45" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="14"/>
@@ -10849,7 +11009,7 @@
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
       <c r="T45" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
@@ -10873,56 +11033,56 @@
     </row>
     <row r="46" spans="1:37" ht="15.75" customHeight="1">
       <c r="A46" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C46" s="14">
         <v>0</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="J46" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="N46" s="34" t="s">
         <v>424</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="N46" s="34" t="s">
-        <v>425</v>
       </c>
       <c r="O46" s="15"/>
       <c r="P46" s="16">
         <v>44677</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R46" s="15"/>
       <c r="S46" s="15"/>
       <c r="T46" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U46" s="15"/>
       <c r="V46" s="15"/>
@@ -10948,10 +11108,10 @@
     </row>
     <row r="47" spans="1:37" ht="15.75" customHeight="1">
       <c r="A47" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C47" s="14">
         <v>0</v>
@@ -10959,45 +11119,45 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I47" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="I47" s="15" t="s">
-        <v>429</v>
-      </c>
       <c r="J47" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P47" s="24">
         <v>44586</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R47" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S47" s="15"/>
       <c r="T47" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U47" s="22">
         <v>0.40860000000000002</v>
@@ -11027,10 +11187,10 @@
     </row>
     <row r="48" spans="1:37" ht="15.75" customHeight="1">
       <c r="A48" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C48" s="14">
         <v>0</v>
@@ -11038,43 +11198,43 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H48" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I48" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="I48" s="15" t="s">
+      <c r="J48" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="J48" s="15" t="s">
+      <c r="K48" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="K48" s="15" t="s">
-        <v>358</v>
-      </c>
       <c r="L48" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P48" s="24">
         <v>44600</v>
       </c>
       <c r="Q48" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R48" s="15"/>
       <c r="S48" s="15"/>
       <c r="T48" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U48" s="22">
         <v>0.52080000000000004</v>
@@ -11104,10 +11264,10 @@
     </row>
     <row r="49" spans="1:37" ht="15.75" customHeight="1">
       <c r="A49" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C49" s="14">
         <v>0</v>
@@ -11115,45 +11275,45 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I49" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="I49" s="15" t="s">
-        <v>435</v>
-      </c>
       <c r="J49" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="K49" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="K49" s="15" t="s">
+      <c r="L49" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="M49" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P49" s="24">
         <v>44550</v>
       </c>
       <c r="Q49" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R49" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S49" s="15"/>
       <c r="T49" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U49" s="22">
         <v>0.2069</v>
@@ -11183,10 +11343,10 @@
     </row>
     <row r="50" spans="1:37" ht="15.75" customHeight="1">
       <c r="A50" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C50" s="14">
         <v>0</v>
@@ -11194,43 +11354,43 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G50" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H50" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I50" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P50" s="24">
         <v>44550</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S50" s="15"/>
       <c r="T50" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U50" s="22">
         <v>0.48380000000000001</v>
@@ -11260,10 +11420,10 @@
     </row>
     <row r="51" spans="1:37" ht="15.75" customHeight="1">
       <c r="A51" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C51" s="14">
         <v>0</v>
@@ -11271,43 +11431,43 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G51" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H51" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I51" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K51" s="15"/>
       <c r="L51" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P51" s="24">
         <v>44600</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R51" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S51" s="15"/>
       <c r="T51" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U51" s="22">
         <v>0.37640000000000001</v>
@@ -11337,10 +11497,10 @@
     </row>
     <row r="52" spans="1:37" ht="15.75" customHeight="1">
       <c r="A52" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C52" s="14">
         <v>0</v>
@@ -11348,43 +11508,43 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G52" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H52" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I52" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M52" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P52" s="24">
         <v>44536</v>
       </c>
       <c r="Q52" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R52" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S52" s="15"/>
       <c r="T52" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U52" s="22">
         <v>0.1085</v>
@@ -11414,10 +11574,10 @@
     </row>
     <row r="53" spans="1:37" ht="15.75" customHeight="1">
       <c r="A53" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C53" s="14">
         <v>0</v>
@@ -11425,45 +11585,45 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M53" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P53" s="24">
         <v>44536</v>
       </c>
       <c r="Q53" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R53" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S53" s="15"/>
       <c r="T53" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U53" s="22">
         <v>0.24060000000000001</v>
@@ -11493,10 +11653,10 @@
     </row>
     <row r="54" spans="1:37" ht="15.75" customHeight="1">
       <c r="A54" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C54" s="14">
         <v>0</v>
@@ -11504,45 +11664,45 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H54" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="J54" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="J54" s="15" t="s">
-        <v>451</v>
-      </c>
       <c r="K54" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M54" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P54" s="24">
         <v>44586</v>
       </c>
       <c r="Q54" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S54" s="15"/>
       <c r="T54" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U54" s="22">
         <v>0.46079999999999999</v>
@@ -11572,32 +11732,32 @@
     </row>
     <row r="55" spans="1:37" ht="15.75" customHeight="1">
       <c r="A55" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C55" s="14">
         <v>0</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G55" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I55" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K55" s="15"/>
       <c r="L55" s="15"/>
@@ -11609,7 +11769,7 @@
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U55" s="15"/>
       <c r="V55" s="15"/>
@@ -11633,10 +11793,10 @@
     </row>
     <row r="56" spans="1:37" ht="15.75" customHeight="1">
       <c r="A56" s="29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C56" s="14">
         <v>0</v>
@@ -11644,19 +11804,19 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
@@ -11668,7 +11828,7 @@
       <c r="R56" s="15"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U56" s="15"/>
       <c r="V56" s="15"/>
@@ -11692,32 +11852,32 @@
     </row>
     <row r="57" spans="1:37" ht="15.75" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C57" s="14">
         <v>0</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G57" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H57" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I57" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K57" s="15"/>
       <c r="L57" s="15"/>
@@ -11729,7 +11889,7 @@
       <c r="R57" s="15"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U57" s="15"/>
       <c r="V57" s="15"/>
@@ -11753,10 +11913,10 @@
     </row>
     <row r="58" spans="1:37" ht="15.75" customHeight="1">
       <c r="A58" s="36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C58" s="14">
         <v>0</v>
@@ -11764,19 +11924,19 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
@@ -11788,7 +11948,7 @@
       <c r="R58" s="15"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U58" s="15"/>
       <c r="V58" s="15"/>
@@ -11812,32 +11972,32 @@
     </row>
     <row r="59" spans="1:37" ht="15.75" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C59" s="14">
         <v>0</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="I59" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="G59" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="I59" s="15" t="s">
-        <v>466</v>
-      </c>
       <c r="J59" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K59" s="15"/>
       <c r="L59" s="15"/>
@@ -11849,7 +12009,7 @@
       <c r="R59" s="15"/>
       <c r="S59" s="15"/>
       <c r="T59" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U59" s="15"/>
       <c r="V59" s="15"/>
@@ -11873,10 +12033,10 @@
     </row>
     <row r="60" spans="1:37" ht="15.75" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C60" s="14">
         <v>0</v>
@@ -11884,19 +12044,19 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G60" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H60" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I60" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K60" s="15"/>
       <c r="L60" s="15"/>
@@ -11908,7 +12068,7 @@
       <c r="R60" s="15"/>
       <c r="S60" s="15"/>
       <c r="T60" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U60" s="15"/>
       <c r="V60" s="15"/>
@@ -11932,32 +12092,32 @@
     </row>
     <row r="61" spans="1:37" ht="15.75" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C61" s="14">
         <v>0</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G61" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="15" t="s">
-        <v>217</v>
-      </c>
       <c r="I61" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
@@ -11969,7 +12129,7 @@
       <c r="R61" s="15"/>
       <c r="S61" s="15"/>
       <c r="T61" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U61" s="15"/>
       <c r="V61" s="15"/>
@@ -11993,10 +12153,10 @@
     </row>
     <row r="62" spans="1:37" ht="15.75" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C62" s="14">
         <v>0</v>
@@ -12004,19 +12164,19 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G62" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
@@ -12028,7 +12188,7 @@
       <c r="R62" s="15"/>
       <c r="S62" s="15"/>
       <c r="T62" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U62" s="15"/>
       <c r="V62" s="15"/>
@@ -12052,10 +12212,10 @@
     </row>
     <row r="63" spans="1:37" ht="15.75" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C63" s="14">
         <v>0</v>
@@ -12063,19 +12223,19 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I63" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
@@ -12087,7 +12247,7 @@
       <c r="R63" s="15"/>
       <c r="S63" s="15"/>
       <c r="T63" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U63" s="15"/>
       <c r="V63" s="15"/>
@@ -12111,32 +12271,32 @@
     </row>
     <row r="64" spans="1:37" ht="15.75" customHeight="1">
       <c r="A64" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C64" s="14">
         <v>0</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G64" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I64" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="G64" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I64" s="15" t="s">
+      <c r="J64" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>479</v>
       </c>
       <c r="K64" s="15"/>
       <c r="L64" s="15"/>
@@ -12148,7 +12308,7 @@
       <c r="R64" s="15"/>
       <c r="S64" s="15"/>
       <c r="T64" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U64" s="15"/>
       <c r="V64" s="15"/>
@@ -12174,10 +12334,10 @@
     </row>
     <row r="65" spans="1:37" ht="15.75" customHeight="1">
       <c r="A65" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C65" s="14">
         <v>0</v>
@@ -12185,19 +12345,19 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H65" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="I65" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="I65" s="15" t="s">
-        <v>482</v>
-      </c>
       <c r="J65" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K65" s="15"/>
       <c r="L65" s="15"/>
@@ -12209,7 +12369,7 @@
       <c r="R65" s="15"/>
       <c r="S65" s="15"/>
       <c r="T65" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U65" s="15"/>
       <c r="V65" s="15"/>
@@ -12233,58 +12393,58 @@
     </row>
     <row r="66" spans="1:37" ht="15.75" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C66" s="14">
         <v>0</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E66" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F66" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="G66" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H66" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H66" s="15" t="s">
+      <c r="I66" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="J66" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="J66" s="15" t="s">
-        <v>488</v>
-      </c>
       <c r="K66" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L66" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N66" s="15"/>
       <c r="O66" s="15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P66" s="16">
         <v>44869</v>
       </c>
       <c r="Q66" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="R66" s="15"/>
       <c r="S66" s="15"/>
       <c r="T66" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U66" s="15"/>
       <c r="V66" s="15"/>
@@ -12308,54 +12468,54 @@
     </row>
     <row r="67" spans="1:37" ht="15.75" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C67" s="14">
         <v>0</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="31" t="s">
+        <v>490</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I67" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>492</v>
-      </c>
       <c r="J67" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K67" s="15"/>
       <c r="L67" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M67" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N67" s="15"/>
       <c r="O67" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P67" s="16">
         <v>44796</v>
       </c>
       <c r="Q67" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="R67" s="15"/>
       <c r="S67" s="15"/>
       <c r="T67" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U67" s="15"/>
       <c r="V67" s="15"/>
@@ -12379,56 +12539,56 @@
     </row>
     <row r="68" spans="1:37" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C68" s="14">
         <v>0</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="F68" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H68" s="15" t="s">
+      <c r="I68" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="I68" s="15" t="s">
-        <v>497</v>
-      </c>
       <c r="J68" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="K68" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="K68" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="L68" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M68" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N68" s="15"/>
       <c r="O68" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P68" s="16">
         <v>44750</v>
       </c>
       <c r="Q68" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R68" s="15"/>
       <c r="S68" s="15"/>
       <c r="T68" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
@@ -12452,56 +12612,56 @@
     </row>
     <row r="69" spans="1:37" ht="15.75" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C69" s="14">
         <v>0</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="F69" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="H69" s="15" t="s">
+      <c r="I69" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="I69" s="15" t="s">
-        <v>502</v>
-      </c>
       <c r="J69" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K69" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L69" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M69" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N69" s="15"/>
       <c r="O69" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P69" s="16">
         <v>44757</v>
       </c>
       <c r="Q69" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="R69" s="15"/>
       <c r="S69" s="15"/>
       <c r="T69" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
@@ -12525,10 +12685,10 @@
     </row>
     <row r="70" spans="1:37" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C70" s="14">
         <v>0</v>
@@ -12537,11 +12697,11 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c r="G70" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
@@ -12554,7 +12714,7 @@
       <c r="R70" s="15"/>
       <c r="S70" s="15"/>
       <c r="T70" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
@@ -12578,10 +12738,10 @@
     </row>
     <row r="71" spans="1:37" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C71" s="14">
         <v>0</v>
@@ -12590,11 +12750,11 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -12607,7 +12767,7 @@
       <c r="R71" s="15"/>
       <c r="S71" s="15"/>
       <c r="T71" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
@@ -12631,10 +12791,10 @@
     </row>
     <row r="72" spans="1:37" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C72" s="14">
         <v>0</v>
@@ -12645,7 +12805,7 @@
       <c r="G72" s="15"/>
       <c r="H72" s="15"/>
       <c r="I72" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
@@ -12658,7 +12818,7 @@
       <c r="R72" s="15"/>
       <c r="S72" s="15"/>
       <c r="T72" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
@@ -12682,10 +12842,10 @@
     </row>
     <row r="73" spans="1:37" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C73" s="14">
         <v>0</v>
@@ -12696,7 +12856,7 @@
       <c r="G73" s="15"/>
       <c r="H73" s="15"/>
       <c r="I73" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
@@ -12709,7 +12869,7 @@
       <c r="R73" s="15"/>
       <c r="S73" s="15"/>
       <c r="T73" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
@@ -12733,10 +12893,10 @@
     </row>
     <row r="74" spans="1:37" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C74" s="14">
         <v>0</v>
@@ -12747,7 +12907,7 @@
       <c r="G74" s="15"/>
       <c r="H74" s="15"/>
       <c r="I74" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
@@ -12760,7 +12920,7 @@
       <c r="R74" s="15"/>
       <c r="S74" s="15"/>
       <c r="T74" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
@@ -12784,10 +12944,10 @@
     </row>
     <row r="75" spans="1:37" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C75" s="14">
         <v>0</v>
@@ -12798,7 +12958,7 @@
       <c r="G75" s="15"/>
       <c r="H75" s="15"/>
       <c r="I75" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
@@ -12811,7 +12971,7 @@
       <c r="R75" s="15"/>
       <c r="S75" s="15"/>
       <c r="T75" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
@@ -12835,10 +12995,10 @@
     </row>
     <row r="76" spans="1:37" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C76" s="14">
         <v>0</v>
@@ -12849,7 +13009,7 @@
       <c r="G76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
@@ -12862,7 +13022,7 @@
       <c r="R76" s="15"/>
       <c r="S76" s="15"/>
       <c r="T76" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U76" s="15"/>
       <c r="V76" s="15"/>
@@ -12886,10 +13046,10 @@
     </row>
     <row r="77" spans="1:37" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C77" s="14">
         <v>0</v>
@@ -12900,7 +13060,7 @@
       <c r="G77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
@@ -12913,7 +13073,7 @@
       <c r="R77" s="15"/>
       <c r="S77" s="15"/>
       <c r="T77" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
@@ -12937,10 +13097,10 @@
     </row>
     <row r="78" spans="1:37" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C78" s="14">
         <v>1</v>
@@ -12951,7 +13111,7 @@
       <c r="G78" s="15"/>
       <c r="H78" s="15"/>
       <c r="I78" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
@@ -12964,7 +13124,7 @@
       <c r="R78" s="15"/>
       <c r="S78" s="15"/>
       <c r="T78" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
@@ -12988,10 +13148,10 @@
     </row>
     <row r="79" spans="1:37" ht="15.75" customHeight="1">
       <c r="A79" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C79" s="14">
         <v>0</v>
@@ -13002,7 +13162,7 @@
       <c r="G79" s="15"/>
       <c r="H79" s="15"/>
       <c r="I79" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
@@ -13015,7 +13175,7 @@
       <c r="R79" s="15"/>
       <c r="S79" s="15"/>
       <c r="T79" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
@@ -13039,10 +13199,10 @@
     </row>
     <row r="80" spans="1:37" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C80" s="14">
         <v>0</v>
@@ -13053,7 +13213,7 @@
       <c r="G80" s="15"/>
       <c r="H80" s="15"/>
       <c r="I80" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
@@ -13066,7 +13226,7 @@
       <c r="R80" s="15"/>
       <c r="S80" s="15"/>
       <c r="T80" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
@@ -13090,10 +13250,10 @@
     </row>
     <row r="81" spans="1:37" ht="15.75" customHeight="1">
       <c r="A81" s="57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C81" s="14">
         <v>1</v>
@@ -13104,7 +13264,7 @@
       <c r="G81" s="15"/>
       <c r="H81" s="15"/>
       <c r="I81" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
@@ -13117,7 +13277,7 @@
       <c r="R81" s="15"/>
       <c r="S81" s="15"/>
       <c r="T81" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
@@ -13139,10 +13299,10 @@
     </row>
     <row r="82" spans="1:37" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C82" s="14">
         <v>0</v>
@@ -13153,7 +13313,7 @@
       <c r="G82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
@@ -13166,7 +13326,7 @@
       <c r="R82" s="15"/>
       <c r="S82" s="15"/>
       <c r="T82" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
@@ -24576,28 +24736,28 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1">
       <c r="A1" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>523</v>
-      </c>
       <c r="C1" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E1" s="39" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G1" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="40" t="s">
         <v>198</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>199</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -24614,26 +24774,26 @@
     </row>
     <row r="2" spans="1:20" ht="15.75" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>525</v>
-      </c>
       <c r="F2" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -24650,23 +24810,23 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
       <c r="A3" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="41" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -24684,25 +24844,25 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -24719,25 +24879,25 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
       <c r="A5" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
@@ -24754,19 +24914,19 @@
     </row>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="15"/>
@@ -24786,19 +24946,19 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="15"/>
@@ -24818,19 +24978,19 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="A8" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>229</v>
-      </c>
       <c r="E8" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="15"/>
@@ -24850,19 +25010,19 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
       <c r="A9" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="15"/>
@@ -24882,27 +25042,27 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="38"/>
       <c r="C10" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -24917,27 +25077,27 @@
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="A11" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="38"/>
       <c r="C11" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
@@ -24953,23 +25113,23 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
       <c r="A12" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -24987,23 +25147,23 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1">
       <c r="A13" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -25021,23 +25181,23 @@
     </row>
     <row r="14" spans="1:20" ht="15.75" customHeight="1">
       <c r="A14" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F14" s="48" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -25055,23 +25215,23 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1">
       <c r="A15" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="52" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F15" s="48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -25089,26 +25249,26 @@
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1">
       <c r="A16" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="53" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D16" s="51" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -25125,26 +25285,26 @@
     </row>
     <row r="17" spans="1:20" ht="15.75" customHeight="1">
       <c r="A17" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="53" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D17" s="51" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
@@ -25161,26 +25321,26 @@
     </row>
     <row r="18" spans="1:20" ht="15.75" customHeight="1">
       <c r="A18" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D18" s="51" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
@@ -25197,26 +25357,26 @@
     </row>
     <row r="19" spans="1:20" ht="15.75" customHeight="1">
       <c r="A19" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>78</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15"/>
@@ -25233,25 +25393,25 @@
     </row>
     <row r="20" spans="1:20" ht="15.75" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D20" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -25268,25 +25428,25 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D21" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -25303,23 +25463,23 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="38"/>
       <c r="C22" s="55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D22" s="47" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F22" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -25337,25 +25497,25 @@
     </row>
     <row r="23" spans="1:20" ht="15.75" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15"/>
@@ -25372,22 +25532,22 @@
     </row>
     <row r="24" spans="1:20" ht="15.75" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
@@ -25405,22 +25565,22 @@
     </row>
     <row r="25" spans="1:20" ht="15.75" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
@@ -25438,22 +25598,22 @@
     </row>
     <row r="26" spans="1:20" ht="15.75" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F26" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
@@ -25471,25 +25631,25 @@
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
       <c r="A27" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F27" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G27" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -25506,25 +25666,25 @@
     </row>
     <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C28" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -25541,25 +25701,25 @@
     </row>
     <row r="29" spans="1:20" ht="15.75" customHeight="1">
       <c r="A29" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F29" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -25576,25 +25736,25 @@
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
       <c r="A30" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F30" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15"/>
@@ -25611,25 +25771,25 @@
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F31" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>375</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15"/>
@@ -25646,25 +25806,25 @@
     </row>
     <row r="32" spans="1:20" ht="15.75" customHeight="1">
       <c r="A32" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F32" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
@@ -25681,22 +25841,22 @@
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1">
       <c r="A33" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F33" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -25714,25 +25874,25 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1">
       <c r="A34" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G34" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -25749,25 +25909,25 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1">
       <c r="A35" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C35" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -25784,25 +25944,25 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
       <c r="A36" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -25819,25 +25979,25 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1">
       <c r="A37" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D37" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -25854,25 +26014,25 @@
     </row>
     <row r="38" spans="1:20" ht="15.75" customHeight="1">
       <c r="A38" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
@@ -25889,25 +26049,25 @@
     </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F39" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G39" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>375</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
@@ -25924,25 +26084,25 @@
     </row>
     <row r="40" spans="1:20" ht="15.75" customHeight="1">
       <c r="A40" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
@@ -25959,25 +26119,25 @@
     </row>
     <row r="41" spans="1:20" ht="15.75" customHeight="1">
       <c r="A41" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G41" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -25994,25 +26154,25 @@
     </row>
     <row r="42" spans="1:20" ht="15.75" customHeight="1">
       <c r="A42" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F42" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -26029,25 +26189,25 @@
     </row>
     <row r="43" spans="1:20" ht="15.75" customHeight="1">
       <c r="A43" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C43" s="53" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15"/>
@@ -26064,22 +26224,22 @@
     </row>
     <row r="44" spans="1:20" ht="15.75" customHeight="1">
       <c r="A44" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
@@ -26097,22 +26257,22 @@
     </row>
     <row r="45" spans="1:20" ht="15.75" customHeight="1">
       <c r="A45" s="38" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C45" s="53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
@@ -26130,25 +26290,25 @@
     </row>
     <row r="46" spans="1:20" ht="15.75" customHeight="1">
       <c r="A46" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15"/>
@@ -26165,25 +26325,25 @@
     </row>
     <row r="47" spans="1:20" ht="15.75" customHeight="1">
       <c r="A47" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15"/>
@@ -26200,25 +26360,25 @@
     </row>
     <row r="48" spans="1:20" ht="15.75" customHeight="1">
       <c r="A48" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G48" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -26235,25 +26395,25 @@
     </row>
     <row r="49" spans="1:20" ht="15.75" customHeight="1">
       <c r="A49" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G49" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>298</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>299</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15"/>
@@ -26270,22 +26430,22 @@
     </row>
     <row r="50" spans="1:20" ht="15.75" customHeight="1">
       <c r="A50" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
@@ -26303,22 +26463,22 @@
     </row>
     <row r="51" spans="1:20" ht="15.75" customHeight="1">
       <c r="A51" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
@@ -26336,22 +26496,22 @@
     </row>
     <row r="52" spans="1:20" ht="15.75" customHeight="1">
       <c r="A52" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
@@ -26369,25 +26529,25 @@
     </row>
     <row r="53" spans="1:20" ht="15.75" customHeight="1">
       <c r="A53" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
@@ -26404,25 +26564,25 @@
     </row>
     <row r="54" spans="1:20" ht="15.75" customHeight="1">
       <c r="A54" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D54" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>

--- a/Tapestri_batch2_samples_MASTER.xlsx
+++ b/Tapestri_batch2_samples_MASTER.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_E6281A34BD5AD42E4670B622DA8C4B50FED4EB07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B09CF0E-1E2C-46B6-A019-60360CBD611D}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_E6281A34BD5AD42E4670B622DA8C4B50FED4EB07" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0060AA67-26B7-4705-AE56-566B4E7F8353}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_case_genetics" sheetId="1" r:id="rId1"/>
@@ -2771,9 +2771,9 @@
   </sheetPr>
   <dimension ref="A1:AY993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -7798,9 +7798,9 @@
   </sheetPr>
   <dimension ref="A1:AK1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -8654,7 +8654,7 @@
         <v>266</v>
       </c>
       <c r="C13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -8918,7 +8918,7 @@
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
     </row>
-    <row r="17" spans="1:37" ht="15.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:37" ht="15.75" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>286</v>
       </c>
@@ -8973,7 +8973,7 @@
       <c r="AJ17" s="15"/>
       <c r="AK17" s="15"/>
     </row>
-    <row r="18" spans="1:37" ht="15.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:37" ht="15.75" customHeight="1">
       <c r="A18" s="17" t="s">
         <v>289</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
     </row>
-    <row r="20" spans="1:37" ht="15.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:37" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>78</v>
       </c>
@@ -24689,13 +24689,7 @@
       <c r="F1004" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK83" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AK83" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <conditionalFormatting sqref="A70:A80 B70:B82">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"LOH"</formula>

--- a/Tapestri_batch2_samples_MASTER.xlsx
+++ b/Tapestri_batch2_samples_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mskcc-my.sharepoint.com/personal/zhangh5_mskcc_org/Documents/Iacobuzio_lab/Tapestri_main_manuscript_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_AB229F4EB68DDA62DA4E72C19CE7FA089908D322" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F54376DE-7D45-1B46-8695-A6BB9606D3F1}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_AB229F4EB68DDA62DA4E72C19CE7FA089908D322" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B0FD80-C177-CE46-B8E7-6DAA8172D45F}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="26460" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="566">
   <si>
     <t>Project Specific ID</t>
   </si>
@@ -1964,6 +1964,21 @@
   <si>
     <t>PA24-1</t>
   </si>
+  <si>
+    <t>RA15_06-10_1_3rd</t>
+  </si>
+  <si>
+    <t>PA6-4</t>
+  </si>
+  <si>
+    <t>Right_liver_dome_met</t>
+  </si>
+  <si>
+    <t>2 (0 tubes cryopreserved nuclei)</t>
+  </si>
+  <si>
+    <t>PA4-2</t>
+  </si>
 </sst>
 </file>
 
@@ -1973,7 +1988,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2044,6 +2059,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -2313,7 +2334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2510,6 +2531,7 @@
     <xf numFmtId="0" fontId="1" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2525,6 +2547,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7697,11 +7723,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AL995"/>
+  <dimension ref="A1:AL997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E56" sqref="E56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8329,7 +8355,7 @@
         <v>130</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>16</v>
@@ -8360,12 +8386,10 @@
       <c r="V9" s="23"/>
       <c r="W9" s="24"/>
       <c r="X9" s="21">
-        <v>2298</v>
+        <v>1830</v>
       </c>
       <c r="Y9" s="24"/>
-      <c r="Z9" s="7" t="s">
-        <v>156</v>
-      </c>
+      <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
@@ -8381,31 +8405,31 @@
     </row>
     <row r="10" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21">
         <v>0</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>16</v>
@@ -8415,23 +8439,17 @@
         <v>139</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P10" s="27">
-        <v>44474</v>
+        <v>154</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="22">
+        <v>45013</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>160</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7" t="s">
         <v>143</v>
@@ -8442,11 +8460,11 @@
       <c r="V10" s="23"/>
       <c r="W10" s="24"/>
       <c r="X10" s="21">
-        <v>2184</v>
+        <v>2298</v>
       </c>
       <c r="Y10" s="24"/>
       <c r="Z10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
@@ -8466,7 +8484,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -8475,7 +8493,7 @@
         <v>398</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>44</v>
@@ -8487,7 +8505,7 @@
         <v>130</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>16</v>
@@ -8496,12 +8514,24 @@
       <c r="L11" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" s="27">
+        <v>44474</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>160</v>
+      </c>
       <c r="S11" s="7"/>
       <c r="T11" s="7" t="s">
         <v>143</v>
@@ -8509,13 +8539,15 @@
       <c r="U11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V11" s="26"/>
+      <c r="V11" s="23"/>
       <c r="W11" s="24"/>
       <c r="X11" s="21">
-        <v>1345</v>
+        <v>2184</v>
       </c>
       <c r="Y11" s="24"/>
-      <c r="Z11" s="7"/>
+      <c r="Z11" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
@@ -8530,71 +8562,57 @@
       <c r="AL11" s="7"/>
     </row>
     <row r="12" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>164</v>
+      <c r="A12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>496</v>
+        <v>534</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>168</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="22">
-        <v>44704</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="U12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V12" s="26">
-        <v>0.3049</v>
-      </c>
-      <c r="W12" s="21">
-        <v>150</v>
-      </c>
+      <c r="V12" s="26"/>
+      <c r="W12" s="24"/>
       <c r="X12" s="21">
-        <v>460</v>
+        <v>1345</v>
       </c>
       <c r="Y12" s="24"/>
       <c r="Z12" s="7"/>
@@ -8616,7 +8634,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C13" s="21">
         <v>0</v>
@@ -8625,7 +8643,7 @@
         <v>402</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>47</v>
@@ -8634,16 +8652,16 @@
         <v>12</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>167</v>
@@ -8654,7 +8672,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="22">
-        <v>44705</v>
+        <v>44704</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>150</v>
@@ -8662,24 +8680,24 @@
       <c r="R13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7" t="s">
         <v>169</v>
       </c>
       <c r="U13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="24"/>
+      <c r="V13" s="26">
+        <v>0.3049</v>
+      </c>
+      <c r="W13" s="21">
+        <v>150</v>
+      </c>
       <c r="X13" s="21">
-        <v>2036</v>
+        <v>460</v>
       </c>
       <c r="Y13" s="24"/>
-      <c r="Z13" s="28" t="s">
-        <v>173</v>
-      </c>
+      <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
@@ -8698,7 +8716,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>174</v>
+        <v>561</v>
       </c>
       <c r="C14" s="21">
         <v>0</v>
@@ -8707,21 +8725,21 @@
         <v>402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="68" t="s">
+        <v>563</v>
+      </c>
+      <c r="J14" s="68" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
@@ -8731,20 +8749,18 @@
         <v>167</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>177</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="22">
-        <v>44677</v>
+        <v>44705</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="S14" s="7"/>
       <c r="T14" s="7" t="s">
@@ -8753,10 +8769,10 @@
       <c r="U14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V14" s="23"/>
-      <c r="W14" s="24"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="21"/>
       <c r="X14" s="21">
-        <v>2164</v>
+        <v>317</v>
       </c>
       <c r="Y14" s="24"/>
       <c r="Z14" s="7"/>
@@ -8774,55 +8790,59 @@
       <c r="AL14" s="7"/>
     </row>
     <row r="15" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>57</v>
+      <c r="A15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="C15" s="21">
         <v>0</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="22">
-        <v>44712</v>
+        <v>44705</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="T15" s="7" t="s">
         <v>169</v>
       </c>
@@ -8832,10 +8852,12 @@
       <c r="V15" s="23"/>
       <c r="W15" s="24"/>
       <c r="X15" s="21">
-        <v>1058</v>
+        <v>2036</v>
       </c>
       <c r="Y15" s="24"/>
-      <c r="Z15" s="7"/>
+      <c r="Z15" s="28" t="s">
+        <v>173</v>
+      </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
@@ -8850,23 +8872,23 @@
       <c r="AL15" s="7"/>
     </row>
     <row r="16" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>60</v>
+      <c r="A16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="C16" s="21">
         <v>0</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>12</v>
@@ -8875,7 +8897,7 @@
         <v>134</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>52</v>
@@ -8884,21 +8906,23 @@
         <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="N16" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>177</v>
+      </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="27">
-        <v>44732</v>
+      <c r="P16" s="22">
+        <v>44677</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="S16" s="7"/>
       <c r="T16" s="7" t="s">
@@ -8910,7 +8934,7 @@
       <c r="V16" s="23"/>
       <c r="W16" s="24"/>
       <c r="X16" s="21">
-        <v>1175</v>
+        <v>2164</v>
       </c>
       <c r="Y16" s="24"/>
       <c r="Z16" s="7"/>
@@ -8932,7 +8956,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C17" s="21">
         <v>0</v>
@@ -8941,7 +8965,7 @@
         <v>409</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>56</v>
@@ -8950,35 +8974,33 @@
         <v>12</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="L17" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="22">
-        <v>44705</v>
+        <v>44712</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="7" t="s">
         <v>169</v>
       </c>
@@ -8988,12 +9010,10 @@
       <c r="V17" s="23"/>
       <c r="W17" s="24"/>
       <c r="X17" s="21">
-        <v>635</v>
+        <v>1058</v>
       </c>
       <c r="Y17" s="24"/>
-      <c r="Z17" s="28" t="s">
-        <v>173</v>
-      </c>
+      <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
@@ -9008,57 +9028,55 @@
       <c r="AL17" s="7"/>
     </row>
     <row r="18" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>65</v>
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="L18" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P18" s="22">
-        <v>44670</v>
+        <v>184</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="27">
+        <v>44732</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="S18" s="7"/>
       <c r="T18" s="7" t="s">
@@ -9070,11 +9088,9 @@
       <c r="V18" s="23"/>
       <c r="W18" s="24"/>
       <c r="X18" s="21">
-        <v>2261</v>
-      </c>
-      <c r="Y18" s="21">
-        <v>565</v>
-      </c>
+        <v>1175</v>
+      </c>
+      <c r="Y18" s="24"/>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7"/>
@@ -9090,23 +9106,23 @@
       <c r="AL18" s="7"/>
     </row>
     <row r="19" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>66</v>
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="21">
         <v>0</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>12</v>
@@ -9115,7 +9131,7 @@
         <v>130</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>16</v>
@@ -9125,24 +9141,22 @@
         <v>139</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>66</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
       <c r="P19" s="22">
-        <v>44670</v>
+        <v>44705</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="S19" s="7"/>
+        <v>148</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="T19" s="7" t="s">
         <v>169</v>
       </c>
@@ -9152,12 +9166,12 @@
       <c r="V19" s="23"/>
       <c r="W19" s="24"/>
       <c r="X19" s="21">
-        <v>2333</v>
-      </c>
-      <c r="Y19" s="21">
-        <v>757</v>
-      </c>
-      <c r="Z19" s="7"/>
+        <v>635</v>
+      </c>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="28" t="s">
+        <v>173</v>
+      </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
@@ -9176,7 +9190,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="21">
         <v>0</v>
@@ -9185,7 +9199,7 @@
         <v>417</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>62</v>
@@ -9197,7 +9211,7 @@
         <v>130</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>16</v>
@@ -9210,14 +9224,16 @@
         <v>191</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="P20" s="22">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>193</v>
@@ -9232,10 +9248,10 @@
       <c r="V20" s="23"/>
       <c r="W20" s="24"/>
       <c r="X20" s="21">
-        <v>681</v>
+        <v>2261</v>
       </c>
       <c r="Y20" s="21">
-        <v>255</v>
+        <v>565</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
@@ -9256,7 +9272,7 @@
         <v>64</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="21">
         <v>0</v>
@@ -9265,7 +9281,7 @@
         <v>417</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>62</v>
@@ -9274,34 +9290,36 @@
         <v>12</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K21" s="7"/>
       <c r="L21" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="O21" s="7"/>
+        <v>196</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="P21" s="22">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R21" s="7"/>
+        <v>137</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="S21" s="7"/>
       <c r="T21" s="7" t="s">
         <v>169</v>
@@ -9312,10 +9330,10 @@
       <c r="V21" s="23"/>
       <c r="W21" s="24"/>
       <c r="X21" s="21">
-        <v>1186</v>
+        <v>2333</v>
       </c>
       <c r="Y21" s="21">
-        <v>413</v>
+        <v>757</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
@@ -9336,7 +9354,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="21">
         <v>0</v>
@@ -9345,7 +9363,7 @@
         <v>417</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>62</v>
@@ -9354,30 +9372,34 @@
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="N22" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="22">
-        <v>44663</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+        <v>44669</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="S22" s="7"/>
       <c r="T22" s="7" t="s">
         <v>169</v>
@@ -9388,9 +9410,11 @@
       <c r="V22" s="23"/>
       <c r="W22" s="24"/>
       <c r="X22" s="21">
-        <v>1361</v>
-      </c>
-      <c r="Y22" s="24"/>
+        <v>681</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>255</v>
+      </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7"/>
@@ -9406,58 +9430,56 @@
       <c r="AL22" s="7"/>
     </row>
     <row r="23" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>206</v>
+      <c r="A23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="21">
         <v>0</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7" t="s">
-        <v>73</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" s="7"/>
       <c r="P23" s="22">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="R23" s="7" t="s">
-        <v>211</v>
-      </c>
+      <c r="R23" s="7"/>
       <c r="S23" s="7"/>
       <c r="T23" s="7" t="s">
         <v>169</v>
@@ -9468,10 +9490,10 @@
       <c r="V23" s="23"/>
       <c r="W23" s="24"/>
       <c r="X23" s="21">
-        <v>668</v>
+        <v>1186</v>
       </c>
       <c r="Y23" s="21">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
@@ -9488,58 +9510,52 @@
       <c r="AL23" s="7"/>
     </row>
     <row r="24" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>212</v>
+      <c r="A24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="C24" s="21">
         <v>0</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="O24" s="7"/>
       <c r="P24" s="22">
-        <v>44655</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>213</v>
-      </c>
+        <v>44663</v>
+      </c>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7" t="s">
         <v>169</v>
@@ -9550,11 +9566,9 @@
       <c r="V24" s="23"/>
       <c r="W24" s="24"/>
       <c r="X24" s="21">
-        <v>711</v>
-      </c>
-      <c r="Y24" s="21">
-        <v>377</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="Y24" s="24"/>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7"/>
@@ -9574,7 +9588,7 @@
         <v>74</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C25" s="21">
         <v>0</v>
@@ -9583,7 +9597,7 @@
         <v>419</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>207</v>
@@ -9592,16 +9606,16 @@
         <v>12</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>131</v>
@@ -9611,16 +9625,16 @@
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P25" s="22">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7" t="s">
@@ -9632,10 +9646,10 @@
       <c r="V25" s="23"/>
       <c r="W25" s="24"/>
       <c r="X25" s="21">
-        <v>921</v>
+        <v>668</v>
       </c>
       <c r="Y25" s="21">
-        <v>675</v>
+        <v>292</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -9651,12 +9665,12 @@
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C26" s="21">
         <v>0</v>
@@ -9665,7 +9679,7 @@
         <v>419</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>207</v>
@@ -9674,13 +9688,13 @@
         <v>12</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>53</v>
@@ -9693,16 +9707,16 @@
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P26" s="22">
-        <v>44656</v>
+        <v>44655</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="S26" s="7"/>
       <c r="T26" s="7" t="s">
@@ -9714,10 +9728,10 @@
       <c r="V26" s="23"/>
       <c r="W26" s="24"/>
       <c r="X26" s="21">
-        <v>1168</v>
+        <v>711</v>
       </c>
       <c r="Y26" s="21">
-        <v>862</v>
+        <v>377</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -9733,12 +9747,12 @@
       <c r="AK26" s="7"/>
       <c r="AL26" s="7"/>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="C27" s="21">
         <v>0</v>
@@ -9747,7 +9761,7 @@
         <v>419</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>207</v>
@@ -9756,32 +9770,36 @@
         <v>12</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="L27" s="7" t="s">
         <v>131</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P27" s="22">
-        <v>44662</v>
+        <v>44656</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="R27" s="7"/>
+        <v>217</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7" t="s">
         <v>169</v>
@@ -9792,14 +9810,12 @@
       <c r="V27" s="23"/>
       <c r="W27" s="24"/>
       <c r="X27" s="21">
-        <v>3196</v>
+        <v>921</v>
       </c>
       <c r="Y27" s="21">
-        <v>2508</v>
-      </c>
-      <c r="Z27" s="31" t="s">
-        <v>173</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
@@ -9818,7 +9834,7 @@
         <v>74</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="C28" s="21">
         <v>0</v>
@@ -9827,7 +9843,7 @@
         <v>419</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>207</v>
@@ -9836,35 +9852,35 @@
         <v>12</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>131</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P28" s="22">
-        <v>44663</v>
+        <v>44656</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="S28" s="7"/>
       <c r="T28" s="7" t="s">
@@ -9876,9 +9892,11 @@
       <c r="V28" s="23"/>
       <c r="W28" s="24"/>
       <c r="X28" s="21">
-        <v>2675</v>
-      </c>
-      <c r="Y28" s="24"/>
+        <v>1168</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>862</v>
+      </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7"/>
@@ -9898,7 +9916,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="21">
         <v>0</v>
@@ -9907,7 +9925,7 @@
         <v>419</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>207</v>
@@ -9916,17 +9934,15 @@
         <v>12</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="7"/>
       <c r="L29" s="7" t="s">
         <v>131</v>
       </c>
@@ -9935,13 +9951,13 @@
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P29" s="22">
         <v>44662</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -9954,10 +9970,10 @@
       <c r="V29" s="23"/>
       <c r="W29" s="24"/>
       <c r="X29" s="21">
-        <v>686</v>
+        <v>3196</v>
       </c>
       <c r="Y29" s="21">
-        <v>0</v>
+        <v>2508</v>
       </c>
       <c r="Z29" s="31" t="s">
         <v>173</v>
@@ -9976,56 +9992,58 @@
       <c r="AL29" s="7"/>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>230</v>
+      <c r="A30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="21">
         <v>0</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="N30" s="7"/>
-      <c r="O30" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>233</v>
+      <c r="O30" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="22">
+        <v>44663</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="R30" s="7"/>
+      <c r="R30" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7" t="s">
         <v>169</v>
@@ -10036,7 +10054,7 @@
       <c r="V30" s="23"/>
       <c r="W30" s="24"/>
       <c r="X30" s="21">
-        <v>811</v>
+        <v>2675</v>
       </c>
       <c r="Y30" s="24"/>
       <c r="Z30" s="7"/>
@@ -10054,58 +10072,56 @@
       <c r="AL30" s="7"/>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>234</v>
+      <c r="A31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C31" s="21">
         <v>0</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="N31" s="7"/>
-      <c r="O31" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="22" t="s">
-        <v>235</v>
+      <c r="O31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="22">
+        <v>44662</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>179</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7" t="s">
         <v>169</v>
@@ -10116,10 +10132,14 @@
       <c r="V31" s="23"/>
       <c r="W31" s="24"/>
       <c r="X31" s="21">
-        <v>1381</v>
-      </c>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="7"/>
+        <v>686</v>
+      </c>
+      <c r="Y31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="31" t="s">
+        <v>173</v>
+      </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
@@ -10138,7 +10158,7 @@
         <v>86</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C32" s="21">
         <v>0</v>
@@ -10147,7 +10167,7 @@
         <v>426</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>84</v>
@@ -10156,16 +10176,16 @@
         <v>12</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>139</v>
@@ -10175,17 +10195,15 @@
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="P32" s="27">
-        <v>44627</v>
+        <v>85</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7" t="s">
         <v>169</v>
@@ -10194,15 +10212,11 @@
         <v>133</v>
       </c>
       <c r="V32" s="23"/>
-      <c r="W32" s="24" t="s">
-        <v>238</v>
-      </c>
+      <c r="W32" s="24"/>
       <c r="X32" s="21">
-        <v>1094</v>
-      </c>
-      <c r="Y32" s="21">
-        <v>345</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="Y32" s="24"/>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7"/>
@@ -10222,7 +10236,7 @@
         <v>86</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C33" s="21">
         <v>0</v>
@@ -10231,7 +10245,7 @@
         <v>426</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>84</v>
@@ -10240,35 +10254,35 @@
         <v>12</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="N33" s="7"/>
-      <c r="O33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P33" s="27">
-        <v>44607</v>
+      <c r="O33" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>235</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="R33" s="7" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7" t="s">
@@ -10277,18 +10291,12 @@
       <c r="U33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V33" s="26">
-        <v>0.29920000000000002</v>
-      </c>
-      <c r="W33" s="21">
-        <v>230</v>
-      </c>
+      <c r="V33" s="23"/>
+      <c r="W33" s="24"/>
       <c r="X33" s="21">
-        <v>1214</v>
-      </c>
-      <c r="Y33" s="21">
-        <v>772</v>
-      </c>
+        <v>1381</v>
+      </c>
+      <c r="Y33" s="24"/>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
       <c r="AB33" s="7"/>
@@ -10308,7 +10316,7 @@
         <v>86</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C34" s="21">
         <v>0</v>
@@ -10317,7 +10325,7 @@
         <v>426</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>84</v>
@@ -10326,16 +10334,16 @@
         <v>12</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>139</v>
@@ -10345,13 +10353,13 @@
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P34" s="27">
-        <v>44607</v>
+        <v>44627</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="R34" s="7" t="s">
         <v>148</v>
@@ -10363,16 +10371,16 @@
       <c r="U34" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V34" s="26">
-        <v>0.3352</v>
-      </c>
-      <c r="W34" s="21">
-        <v>288</v>
+      <c r="V34" s="23"/>
+      <c r="W34" s="24" t="s">
+        <v>238</v>
       </c>
       <c r="X34" s="21">
-        <v>1122</v>
-      </c>
-      <c r="Y34" s="24"/>
+        <v>1094</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>345</v>
+      </c>
       <c r="Z34" s="7"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="7"/>
@@ -10392,7 +10400,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C35" s="21">
         <v>0</v>
@@ -10401,7 +10409,7 @@
         <v>426</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>84</v>
@@ -10410,35 +10418,35 @@
         <v>12</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P35" s="27">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7" t="s">
@@ -10448,16 +10456,16 @@
         <v>133</v>
       </c>
       <c r="V35" s="26">
-        <v>0.29149999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
       <c r="W35" s="21">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="X35" s="21">
-        <v>957</v>
+        <v>1214</v>
       </c>
       <c r="Y35" s="21">
-        <v>631</v>
+        <v>772</v>
       </c>
       <c r="Z35" s="7"/>
       <c r="AA35" s="7"/>
@@ -10478,7 +10486,7 @@
         <v>86</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C36" s="21">
         <v>0</v>
@@ -10487,7 +10495,7 @@
         <v>426</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>84</v>
@@ -10496,22 +10504,36 @@
         <v>12</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="O36" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="27">
+        <v>44607</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>148</v>
+      </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7" t="s">
         <v>169</v>
@@ -10519,10 +10541,14 @@
       <c r="U36" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V36" s="23"/>
-      <c r="W36" s="24"/>
+      <c r="V36" s="26">
+        <v>0.3352</v>
+      </c>
+      <c r="W36" s="21">
+        <v>288</v>
+      </c>
       <c r="X36" s="21">
-        <v>1405</v>
+        <v>1122</v>
       </c>
       <c r="Y36" s="24"/>
       <c r="Z36" s="7"/>
@@ -10540,35 +10566,35 @@
       <c r="AL36" s="7"/>
     </row>
     <row r="37" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>246</v>
+      <c r="A37" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="C37" s="21">
         <v>0</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>53</v>
@@ -10577,19 +10603,21 @@
         <v>139</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="N37" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="22">
-        <v>44677</v>
+        <v>210</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" s="27">
+        <v>44606</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="R37" s="7"/>
+        <v>150</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7" t="s">
         <v>169</v>
@@ -10597,13 +10625,17 @@
       <c r="U37" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V37" s="23"/>
-      <c r="W37" s="24"/>
+      <c r="V37" s="26">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="W37" s="21">
+        <v>265</v>
+      </c>
       <c r="X37" s="21">
-        <v>1405</v>
+        <v>957</v>
       </c>
       <c r="Y37" s="21">
-        <v>265</v>
+        <v>631</v>
       </c>
       <c r="Z37" s="7"/>
       <c r="AA37" s="7"/>
@@ -10620,58 +10652,44 @@
       <c r="AL37" s="7"/>
     </row>
     <row r="38" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>251</v>
+      <c r="A38" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="C38" s="21">
         <v>0</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>210</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P38" s="27">
-        <v>44586</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>160</v>
-      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7" t="s">
         <v>169</v>
@@ -10679,18 +10697,12 @@
       <c r="U38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V38" s="26">
-        <v>0.40860000000000002</v>
-      </c>
-      <c r="W38" s="21">
-        <v>168</v>
-      </c>
+      <c r="V38" s="23"/>
+      <c r="W38" s="24"/>
       <c r="X38" s="21">
-        <v>2075</v>
-      </c>
-      <c r="Y38" s="21">
-        <v>446</v>
-      </c>
+        <v>1405</v>
+      </c>
+      <c r="Y38" s="24"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
@@ -10710,7 +10722,7 @@
         <v>99</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C39" s="21">
         <v>0</v>
@@ -10719,7 +10731,7 @@
         <v>431</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>97</v>
@@ -10728,32 +10740,32 @@
         <v>12</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P39" s="27">
-        <v>44600</v>
+        <v>176</v>
+      </c>
+      <c r="N39" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="22">
+        <v>44677</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -10763,17 +10775,13 @@
       <c r="U39" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V39" s="26">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="W39" s="21">
-        <v>238</v>
-      </c>
+      <c r="V39" s="23"/>
+      <c r="W39" s="24"/>
       <c r="X39" s="21">
-        <v>1949</v>
+        <v>1405</v>
       </c>
       <c r="Y39" s="21">
-        <v>749</v>
+        <v>265</v>
       </c>
       <c r="Z39" s="7"/>
       <c r="AA39" s="7"/>
@@ -10794,7 +10802,7 @@
         <v>99</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C40" s="21">
         <v>0</v>
@@ -10803,7 +10811,7 @@
         <v>431</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>97</v>
@@ -10812,35 +10820,35 @@
         <v>12</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P40" s="27">
-        <v>44550</v>
+        <v>44586</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="S40" s="7"/>
       <c r="T40" s="7" t="s">
@@ -10850,16 +10858,16 @@
         <v>133</v>
       </c>
       <c r="V40" s="26">
-        <v>0.2069</v>
+        <v>0.40860000000000002</v>
       </c>
       <c r="W40" s="21">
-        <v>472</v>
+        <v>168</v>
       </c>
       <c r="X40" s="21">
-        <v>429</v>
+        <v>2075</v>
       </c>
       <c r="Y40" s="21">
-        <v>116</v>
+        <v>446</v>
       </c>
       <c r="Z40" s="7"/>
       <c r="AA40" s="7"/>
@@ -10880,7 +10888,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C41" s="21">
         <v>0</v>
@@ -10889,7 +10897,7 @@
         <v>431</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>97</v>
@@ -10898,34 +10906,34 @@
         <v>12</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K41" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="L41" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P41" s="27">
-        <v>44550</v>
+        <v>44600</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="R41" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7" t="s">
         <v>169</v>
@@ -10934,16 +10942,16 @@
         <v>133</v>
       </c>
       <c r="V41" s="26">
-        <v>0.48380000000000001</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="W41" s="21">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="X41" s="21">
-        <v>1810</v>
+        <v>1949</v>
       </c>
       <c r="Y41" s="21">
-        <v>12</v>
+        <v>749</v>
       </c>
       <c r="Z41" s="7"/>
       <c r="AA41" s="7"/>
@@ -10964,7 +10972,7 @@
         <v>99</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C42" s="21">
         <v>0</v>
@@ -10973,7 +10981,7 @@
         <v>431</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>97</v>
@@ -10982,33 +10990,35 @@
         <v>12</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="L42" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P42" s="27">
-        <v>44600</v>
+        <v>44550</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>137</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7" t="s">
@@ -11018,16 +11028,16 @@
         <v>133</v>
       </c>
       <c r="V42" s="26">
-        <v>0.37640000000000001</v>
+        <v>0.2069</v>
       </c>
       <c r="W42" s="21">
-        <v>89</v>
+        <v>472</v>
       </c>
       <c r="X42" s="21">
-        <v>2129</v>
+        <v>429</v>
       </c>
       <c r="Y42" s="21">
-        <v>747</v>
+        <v>116</v>
       </c>
       <c r="Z42" s="7"/>
       <c r="AA42" s="7"/>
@@ -11048,7 +11058,7 @@
         <v>99</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C43" s="21">
         <v>0</v>
@@ -11057,7 +11067,7 @@
         <v>431</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>97</v>
@@ -11069,7 +11079,7 @@
         <v>130</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>263</v>
+        <v>190</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>16</v>
@@ -11079,20 +11089,20 @@
         <v>139</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P43" s="27">
-        <v>44536</v>
+        <v>44550</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="S43" s="7"/>
       <c r="T43" s="7" t="s">
@@ -11102,16 +11112,16 @@
         <v>133</v>
       </c>
       <c r="V43" s="26">
-        <v>0.1085</v>
+        <v>0.48380000000000001</v>
       </c>
       <c r="W43" s="21">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="X43" s="21">
-        <v>1955</v>
+        <v>1810</v>
       </c>
       <c r="Y43" s="21">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="Z43" s="7"/>
       <c r="AA43" s="7"/>
@@ -11132,7 +11142,7 @@
         <v>99</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C44" s="21">
         <v>0</v>
@@ -11141,7 +11151,7 @@
         <v>431</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>97</v>
@@ -11150,35 +11160,33 @@
         <v>12</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K44" s="7"/>
       <c r="L44" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P44" s="27">
-        <v>44536</v>
+        <v>44600</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7" t="s">
@@ -11188,16 +11196,16 @@
         <v>133</v>
       </c>
       <c r="V44" s="26">
-        <v>0.24060000000000001</v>
+        <v>0.37640000000000001</v>
       </c>
       <c r="W44" s="21">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="X44" s="21">
-        <v>1137</v>
+        <v>2129</v>
       </c>
       <c r="Y44" s="21">
-        <v>953</v>
+        <v>747</v>
       </c>
       <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
@@ -11218,7 +11226,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C45" s="21">
         <v>0</v>
@@ -11227,7 +11235,7 @@
         <v>431</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>97</v>
@@ -11236,35 +11244,33 @@
         <v>12</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K45" s="7"/>
       <c r="L45" s="7" t="s">
         <v>139</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P45" s="27">
-        <v>44586</v>
+        <v>44536</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7" t="s">
@@ -11274,16 +11280,16 @@
         <v>133</v>
       </c>
       <c r="V45" s="26">
-        <v>0.46079999999999999</v>
+        <v>0.1085</v>
       </c>
       <c r="W45" s="21">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="X45" s="21">
-        <v>3250</v>
+        <v>1955</v>
       </c>
       <c r="Y45" s="21">
-        <v>2003</v>
+        <v>236</v>
       </c>
       <c r="Z45" s="7"/>
       <c r="AA45" s="7"/>
@@ -11300,44 +11306,58 @@
       <c r="AL45" s="7"/>
     </row>
     <row r="46" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>269</v>
+      <c r="A46" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="C46" s="21">
         <v>0</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
+      <c r="O46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P46" s="27">
+        <v>44536</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="S46" s="7"/>
       <c r="T46" s="7" t="s">
         <v>169</v>
@@ -11345,12 +11365,18 @@
       <c r="U46" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V46" s="23"/>
-      <c r="W46" s="24"/>
+      <c r="V46" s="26">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="W46" s="21">
+        <v>263</v>
+      </c>
       <c r="X46" s="21">
-        <v>2660</v>
-      </c>
-      <c r="Y46" s="24"/>
+        <v>1137</v>
+      </c>
+      <c r="Y46" s="21">
+        <v>953</v>
+      </c>
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
@@ -11366,44 +11392,58 @@
       <c r="AL46" s="7"/>
     </row>
     <row r="47" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>271</v>
+      <c r="A47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="C47" s="21">
         <v>0</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>270</v>
+        <v>97</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
+      <c r="O47" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P47" s="27">
+        <v>44586</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7" t="s">
         <v>169</v>
@@ -11411,12 +11451,18 @@
       <c r="U47" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="V47" s="23"/>
-      <c r="W47" s="24"/>
+      <c r="V47" s="26">
+        <v>0.46079999999999999</v>
+      </c>
+      <c r="W47" s="21">
+        <v>112</v>
+      </c>
       <c r="X47" s="21">
-        <v>2102</v>
-      </c>
-      <c r="Y47" s="24"/>
+        <v>3250</v>
+      </c>
+      <c r="Y47" s="21">
+        <v>2003</v>
+      </c>
       <c r="Z47" s="7"/>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
@@ -11432,23 +11478,23 @@
       <c r="AL47" s="7"/>
     </row>
     <row r="48" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>274</v>
+      <c r="A48" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="C48" s="21">
         <v>0</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>12</v>
@@ -11480,7 +11526,7 @@
       <c r="V48" s="23"/>
       <c r="W48" s="24"/>
       <c r="X48" s="21">
-        <v>4021</v>
+        <v>2660</v>
       </c>
       <c r="Y48" s="24"/>
       <c r="Z48" s="7"/>
@@ -11498,23 +11544,23 @@
       <c r="AL48" s="7"/>
     </row>
     <row r="49" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>276</v>
+      <c r="A49" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="C49" s="21">
         <v>0</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>12</v>
@@ -11523,7 +11569,7 @@
         <v>215</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>78</v>
@@ -11546,7 +11592,7 @@
       <c r="V49" s="23"/>
       <c r="W49" s="24"/>
       <c r="X49" s="21">
-        <v>2775</v>
+        <v>2102</v>
       </c>
       <c r="Y49" s="24"/>
       <c r="Z49" s="7"/>
@@ -11564,35 +11610,35 @@
       <c r="AL49" s="7"/>
     </row>
     <row r="50" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>279</v>
+      <c r="A50" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="C50" s="21">
         <v>0</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -11612,7 +11658,7 @@
       <c r="V50" s="23"/>
       <c r="W50" s="24"/>
       <c r="X50" s="21">
-        <v>2981</v>
+        <v>4021</v>
       </c>
       <c r="Y50" s="24"/>
       <c r="Z50" s="7"/>
@@ -11630,35 +11676,35 @@
       <c r="AL50" s="7"/>
     </row>
     <row r="51" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>282</v>
+      <c r="A51" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="C51" s="21">
         <v>0</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
@@ -11678,7 +11724,7 @@
       <c r="V51" s="23"/>
       <c r="W51" s="24"/>
       <c r="X51" s="21">
-        <v>3054</v>
+        <v>2775</v>
       </c>
       <c r="Y51" s="24"/>
       <c r="Z51" s="7"/>
@@ -11696,35 +11742,35 @@
       <c r="AL51" s="7"/>
     </row>
     <row r="52" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>284</v>
+      <c r="A52" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="C52" s="21">
         <v>0</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
@@ -11744,7 +11790,7 @@
       <c r="V52" s="23"/>
       <c r="W52" s="24"/>
       <c r="X52" s="21">
-        <v>983</v>
+        <v>2981</v>
       </c>
       <c r="Y52" s="24"/>
       <c r="Z52" s="7"/>
@@ -11762,35 +11808,35 @@
       <c r="AL52" s="7"/>
     </row>
     <row r="53" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>286</v>
+      <c r="A53" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="C53" s="21">
         <v>0</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>287</v>
+        <v>187</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
@@ -11810,7 +11856,7 @@
       <c r="V53" s="23"/>
       <c r="W53" s="24"/>
       <c r="X53" s="21">
-        <v>3578</v>
+        <v>3054</v>
       </c>
       <c r="Y53" s="24"/>
       <c r="Z53" s="7"/>
@@ -11832,7 +11878,7 @@
         <v>283</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C54" s="21">
         <v>0</v>
@@ -11841,7 +11887,7 @@
         <v>450</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>285</v>
@@ -11850,13 +11896,13 @@
         <v>12</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
@@ -11876,7 +11922,7 @@
       <c r="V54" s="23"/>
       <c r="W54" s="24"/>
       <c r="X54" s="21">
-        <v>2226</v>
+        <v>983</v>
       </c>
       <c r="Y54" s="24"/>
       <c r="Z54" s="7"/>
@@ -11894,57 +11940,47 @@
       <c r="AL54" s="7"/>
     </row>
     <row r="55" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>15</v>
+      <c r="A55" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="C55" s="21">
         <v>0</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="K55" s="7"/>
-      <c r="L55" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M55" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P55" s="22">
-        <v>44796</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>301</v>
-      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="U55" s="7" t="s">
         <v>133</v>
@@ -11952,7 +11988,7 @@
       <c r="V55" s="23"/>
       <c r="W55" s="24"/>
       <c r="X55" s="21">
-        <v>2407</v>
+        <v>3578</v>
       </c>
       <c r="Y55" s="24"/>
       <c r="Z55" s="7"/>
@@ -11970,59 +12006,47 @@
       <c r="AL55" s="7"/>
     </row>
     <row r="56" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>296</v>
+      <c r="A56" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="C56" s="21">
         <v>0</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>297</v>
+        <v>215</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
       <c r="N56" s="7"/>
-      <c r="O56" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="P56" s="22">
-        <v>44869</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>299</v>
-      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="U56" s="7" t="s">
         <v>133</v>
@@ -12030,7 +12054,7 @@
       <c r="V56" s="23"/>
       <c r="W56" s="24"/>
       <c r="X56" s="21">
-        <v>2722</v>
+        <v>2226</v>
       </c>
       <c r="Y56" s="24"/>
       <c r="Z56" s="7"/>
@@ -12048,11 +12072,11 @@
       <c r="AL56" s="7"/>
     </row>
     <row r="57" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>290</v>
+      <c r="B57" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C57" s="21">
         <v>0</v>
@@ -12061,34 +12085,44 @@
         <v>458</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>130</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
+      <c r="L57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="7"/>
+      <c r="O57" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P57" s="22">
+        <v>44796</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>301</v>
+      </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="U57" s="7" t="s">
         <v>133</v>
@@ -12096,11 +12130,9 @@
       <c r="V57" s="23"/>
       <c r="W57" s="24"/>
       <c r="X57" s="21">
-        <v>7540</v>
-      </c>
-      <c r="Y57" s="21">
-        <v>7023</v>
-      </c>
+        <v>2407</v>
+      </c>
+      <c r="Y57" s="24"/>
       <c r="Z57" s="7"/>
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
@@ -12116,11 +12148,11 @@
       <c r="AL57" s="7"/>
     </row>
     <row r="58" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="11" t="s">
-        <v>293</v>
+      <c r="B58" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C58" s="21">
         <v>0</v>
@@ -12129,34 +12161,46 @@
         <v>458</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G58" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="7"/>
+      <c r="O58" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P58" s="22">
+        <v>44869</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="U58" s="7" t="s">
         <v>133</v>
@@ -12164,7 +12208,7 @@
       <c r="V58" s="23"/>
       <c r="W58" s="24"/>
       <c r="X58" s="21">
-        <v>822</v>
+        <v>2722</v>
       </c>
       <c r="Y58" s="24"/>
       <c r="Z58" s="7"/>
@@ -12182,11 +12226,11 @@
       <c r="AL58" s="7"/>
     </row>
     <row r="59" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>17</v>
+      <c r="B59" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="C59" s="21">
         <v>0</v>
@@ -12195,42 +12239,30 @@
         <v>458</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M59" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
       <c r="N59" s="7"/>
-      <c r="O59" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P59" s="22">
-        <v>44750</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="O59" s="7"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7" t="s">
@@ -12242,9 +12274,11 @@
       <c r="V59" s="23"/>
       <c r="W59" s="24"/>
       <c r="X59" s="21">
-        <v>5301</v>
-      </c>
-      <c r="Y59" s="24"/>
+        <v>7540</v>
+      </c>
+      <c r="Y59" s="21">
+        <v>7023</v>
+      </c>
       <c r="Z59" s="7"/>
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
@@ -12260,11 +12294,11 @@
       <c r="AL59" s="7"/>
     </row>
     <row r="60" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>19</v>
+      <c r="B60" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="C60" s="21">
         <v>0</v>
@@ -12273,42 +12307,30 @@
         <v>458</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="M60" s="7" t="s">
-        <v>135</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P60" s="22">
-        <v>44757</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7" t="s">
@@ -12320,7 +12342,7 @@
       <c r="V60" s="23"/>
       <c r="W60" s="24"/>
       <c r="X60" s="21">
-        <v>1331</v>
+        <v>822</v>
       </c>
       <c r="Y60" s="24"/>
       <c r="Z60" s="7"/>
@@ -12338,41 +12360,59 @@
       <c r="AL60" s="7"/>
     </row>
     <row r="61" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>308</v>
+      <c r="A61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C61" s="21">
         <v>0</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="F61" s="7"/>
+        <v>546</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G61" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>302</v>
+      </c>
       <c r="I61" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="7"/>
+      <c r="O61" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P61" s="22">
+        <v>44750</v>
+      </c>
+      <c r="Q61" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7" t="s">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="U61" s="7" t="s">
         <v>133</v>
@@ -12380,7 +12420,7 @@
       <c r="V61" s="23"/>
       <c r="W61" s="24"/>
       <c r="X61" s="21">
-        <v>181</v>
+        <v>5301</v>
       </c>
       <c r="Y61" s="24"/>
       <c r="Z61" s="7"/>
@@ -12398,41 +12438,59 @@
       <c r="AL61" s="7"/>
     </row>
     <row r="62" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>311</v>
+      <c r="A62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C62" s="21">
         <v>0</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="F62" s="7"/>
+        <v>547</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>305</v>
+      </c>
       <c r="I62" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
+        <v>306</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="7"/>
+      <c r="O62" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P62" s="22">
+        <v>44757</v>
+      </c>
+      <c r="Q62" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7" t="s">
-        <v>310</v>
+        <v>169</v>
       </c>
       <c r="U62" s="7" t="s">
         <v>133</v>
@@ -12440,7 +12498,7 @@
       <c r="V62" s="23"/>
       <c r="W62" s="24"/>
       <c r="X62" s="21">
-        <v>866</v>
+        <v>1331</v>
       </c>
       <c r="Y62" s="24"/>
       <c r="Z62" s="7"/>
@@ -12459,25 +12517,27 @@
     </row>
     <row r="63" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C63" s="21">
         <v>0</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
+      <c r="G63" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
@@ -12498,7 +12558,7 @@
       <c r="V63" s="23"/>
       <c r="W63" s="24"/>
       <c r="X63" s="21">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="Y63" s="24"/>
       <c r="Z63" s="7"/>
@@ -12517,22 +12577,24 @@
     </row>
     <row r="64" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C64" s="21">
         <v>0</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
+      <c r="G64" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7" t="s">
         <v>312</v>
@@ -12556,7 +12618,7 @@
       <c r="V64" s="23"/>
       <c r="W64" s="24"/>
       <c r="X64" s="21">
-        <v>569</v>
+        <v>866</v>
       </c>
       <c r="Y64" s="24"/>
       <c r="Z64" s="7"/>
@@ -12575,25 +12637,25 @@
     </row>
     <row r="65" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C65" s="21">
         <v>0</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -12614,7 +12676,7 @@
       <c r="V65" s="23"/>
       <c r="W65" s="24"/>
       <c r="X65" s="21">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="Y65" s="24"/>
       <c r="Z65" s="7"/>
@@ -12633,25 +12695,25 @@
     </row>
     <row r="66" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="33" t="s">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C66" s="21">
         <v>0</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -12672,7 +12734,7 @@
       <c r="V66" s="23"/>
       <c r="W66" s="24"/>
       <c r="X66" s="21">
-        <v>2283</v>
+        <v>569</v>
       </c>
       <c r="Y66" s="24"/>
       <c r="Z66" s="7"/>
@@ -12691,25 +12753,25 @@
     </row>
     <row r="67" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>317</v>
       </c>
       <c r="C67" s="21">
         <v>0</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -12722,7 +12784,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="U67" s="7" t="s">
         <v>133</v>
@@ -12730,7 +12792,7 @@
       <c r="V67" s="23"/>
       <c r="W67" s="24"/>
       <c r="X67" s="21">
-        <v>4480</v>
+        <v>50</v>
       </c>
       <c r="Y67" s="24"/>
       <c r="Z67" s="7"/>
@@ -12749,19 +12811,19 @@
     </row>
     <row r="68" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C68" s="21">
         <v>0</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
@@ -12788,7 +12850,7 @@
       <c r="V68" s="23"/>
       <c r="W68" s="24"/>
       <c r="X68" s="21">
-        <v>634</v>
+        <v>2283</v>
       </c>
       <c r="Y68" s="24"/>
       <c r="Z68" s="7"/>
@@ -12807,25 +12869,25 @@
     </row>
     <row r="69" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="B69" s="33" t="s">
-        <v>325</v>
+        <v>320</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="C69" s="21">
         <v>0</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -12838,7 +12900,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7" t="s">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="U69" s="7" t="s">
         <v>133</v>
@@ -12846,7 +12908,7 @@
       <c r="V69" s="23"/>
       <c r="W69" s="24"/>
       <c r="X69" s="21">
-        <v>329</v>
+        <v>4480</v>
       </c>
       <c r="Y69" s="24"/>
       <c r="Z69" s="7"/>
@@ -12865,35 +12927,29 @@
     </row>
     <row r="70" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="33" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C70" s="21">
         <v>0</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>328</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>16</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="J70" s="7"/>
       <c r="K70" s="7"/>
-      <c r="L70" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
@@ -12902,7 +12958,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="U70" s="7" t="s">
         <v>133</v>
@@ -12910,7 +12966,7 @@
       <c r="V70" s="23"/>
       <c r="W70" s="24"/>
       <c r="X70" s="21">
-        <v>2674</v>
+        <v>634</v>
       </c>
       <c r="Y70" s="24"/>
       <c r="Z70" s="7"/>
@@ -12929,25 +12985,25 @@
     </row>
     <row r="71" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C71" s="21">
         <v>0</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -12960,7 +13016,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7" t="s">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="U71" s="7" t="s">
         <v>133</v>
@@ -12968,7 +13024,7 @@
       <c r="V71" s="23"/>
       <c r="W71" s="24"/>
       <c r="X71" s="21">
-        <v>4819</v>
+        <v>329</v>
       </c>
       <c r="Y71" s="24"/>
       <c r="Z71" s="7"/>
@@ -12986,30 +13042,36 @@
       <c r="AL71" s="7"/>
     </row>
     <row r="72" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="B72" s="34" t="s">
-        <v>332</v>
+      <c r="A72" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" s="33" t="s">
+        <v>327</v>
       </c>
       <c r="C72" s="21">
         <v>0</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="F72" s="7"/>
+        <v>557</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J72" s="7"/>
+      <c r="J72" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
+      <c r="L72" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7"/>
@@ -13021,11 +13083,13 @@
         <v>143</v>
       </c>
       <c r="U72" s="7" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
       <c r="V72" s="23"/>
       <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
+      <c r="X72" s="21">
+        <v>2674</v>
+      </c>
       <c r="Y72" s="24"/>
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
@@ -13043,25 +13107,25 @@
     </row>
     <row r="73" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="33" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C73" s="21">
         <v>0</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
@@ -13082,7 +13146,7 @@
       <c r="V73" s="23"/>
       <c r="W73" s="24"/>
       <c r="X73" s="21">
-        <v>543</v>
+        <v>4819</v>
       </c>
       <c r="Y73" s="24"/>
       <c r="Z73" s="7"/>
@@ -13100,15 +13164,27 @@
       <c r="AL73" s="7"/>
     </row>
     <row r="74" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
+      <c r="A74" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C74" s="21">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>559</v>
+      </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="I74" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="7"/>
@@ -13119,8 +13195,12 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
+      <c r="T74" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U74" s="7" t="s">
+        <v>333</v>
+      </c>
       <c r="V74" s="23"/>
       <c r="W74" s="24"/>
       <c r="X74" s="24"/>
@@ -13140,15 +13220,27 @@
       <c r="AL74" s="7"/>
     </row>
     <row r="75" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
+      <c r="A75" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="C75" s="21">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
+      <c r="I75" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="J75" s="7"/>
       <c r="K75" s="7"/>
       <c r="L75" s="7"/>
@@ -13159,11 +13251,17 @@
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
+      <c r="T75" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="U75" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="V75" s="23"/>
       <c r="W75" s="24"/>
-      <c r="X75" s="24"/>
+      <c r="X75" s="21">
+        <v>543</v>
+      </c>
       <c r="Y75" s="24"/>
       <c r="Z75" s="7"/>
       <c r="AA75" s="7"/>
@@ -20140,16 +20238,84 @@
       <c r="AL249" s="7"/>
     </row>
     <row r="250" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="7"/>
+      <c r="B250" s="7"/>
       <c r="C250" s="24"/>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
+      <c r="G250" s="7"/>
+      <c r="H250" s="7"/>
+      <c r="I250" s="7"/>
+      <c r="J250" s="7"/>
+      <c r="K250" s="7"/>
+      <c r="L250" s="7"/>
+      <c r="M250" s="7"/>
+      <c r="N250" s="7"/>
+      <c r="O250" s="7"/>
+      <c r="P250" s="22"/>
+      <c r="Q250" s="7"/>
+      <c r="R250" s="7"/>
+      <c r="S250" s="7"/>
+      <c r="T250" s="7"/>
+      <c r="U250" s="7"/>
+      <c r="V250" s="23"/>
+      <c r="W250" s="24"/>
+      <c r="X250" s="24"/>
+      <c r="Y250" s="24"/>
+      <c r="Z250" s="7"/>
+      <c r="AA250" s="7"/>
+      <c r="AB250" s="7"/>
+      <c r="AC250" s="7"/>
+      <c r="AD250" s="7"/>
+      <c r="AE250" s="7"/>
+      <c r="AF250" s="7"/>
+      <c r="AG250" s="7"/>
+      <c r="AH250" s="7"/>
+      <c r="AI250" s="7"/>
+      <c r="AJ250" s="7"/>
+      <c r="AK250" s="7"/>
+      <c r="AL250" s="7"/>
     </row>
     <row r="251" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="7"/>
+      <c r="B251" s="7"/>
       <c r="C251" s="24"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7"/>
+      <c r="I251" s="7"/>
+      <c r="J251" s="7"/>
+      <c r="K251" s="7"/>
+      <c r="L251" s="7"/>
+      <c r="M251" s="7"/>
+      <c r="N251" s="7"/>
+      <c r="O251" s="7"/>
+      <c r="P251" s="22"/>
+      <c r="Q251" s="7"/>
+      <c r="R251" s="7"/>
+      <c r="S251" s="7"/>
+      <c r="T251" s="7"/>
+      <c r="U251" s="7"/>
+      <c r="V251" s="23"/>
+      <c r="W251" s="24"/>
+      <c r="X251" s="24"/>
+      <c r="Y251" s="24"/>
+      <c r="Z251" s="7"/>
+      <c r="AA251" s="7"/>
+      <c r="AB251" s="7"/>
+      <c r="AC251" s="7"/>
+      <c r="AD251" s="7"/>
+      <c r="AE251" s="7"/>
+      <c r="AF251" s="7"/>
+      <c r="AG251" s="7"/>
+      <c r="AH251" s="7"/>
+      <c r="AI251" s="7"/>
+      <c r="AJ251" s="7"/>
+      <c r="AK251" s="7"/>
+      <c r="AL251" s="7"/>
     </row>
     <row r="252" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="24"/>
@@ -24614,6 +24780,18 @@
       <c r="D995" s="7"/>
       <c r="E995" s="7"/>
       <c r="F995" s="7"/>
+    </row>
+    <row r="996" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C996" s="24"/>
+      <c r="D996" s="7"/>
+      <c r="E996" s="7"/>
+      <c r="F996" s="7"/>
+    </row>
+    <row r="997" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C997" s="24"/>
+      <c r="D997" s="7"/>
+      <c r="E997" s="7"/>
+      <c r="F997" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Tapestri_batch2_samples_MASTER.xlsx
+++ b/Tapestri_batch2_samples_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mskcc-my.sharepoint.com/personal/zhangh5_mskcc_org/Documents/Iacobuzio_lab/Tapestri_main_manuscript_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="11_AB229F4EB68DDA62DA4E72C19CE7FA089908D322" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67B0FD80-C177-CE46-B8E7-6DAA8172D45F}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="11_AB229F4EB68DDA62DA4E72C19CE7FA089908D322" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCD9B0E8-840B-7145-8508-68218E66B795}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="26460" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="567">
   <si>
     <t>Project Specific ID</t>
   </si>
@@ -1978,6 +1978,9 @@
   </si>
   <si>
     <t>PA4-2</t>
+  </si>
+  <si>
+    <t>M12-2</t>
   </si>
 </sst>
 </file>
@@ -7727,7 +7730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8334,7 +8337,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>42</v>
+        <v>566</v>
       </c>
       <c r="C9" s="21">
         <v>0</v>
